--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_13_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_13_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-80608.39926706596</v>
+        <v>-57108.86626480118</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25879247.04376586</v>
+        <v>24944788.53360418</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2047826.229384373</v>
+        <v>2459999.309915981</v>
       </c>
     </row>
     <row r="11">
@@ -23270,49 +23272,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>413.8325483879333</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H11" t="n">
-        <v>327.6751233740921</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I11" t="n">
-        <v>165.8152863627317</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J11" t="n">
-        <v>89.76036546048012</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K11" t="n">
-        <v>84.55776703287157</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L11" t="n">
-        <v>68.55874285947689</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M11" t="n">
-        <v>45.0952138038613</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N11" t="n">
-        <v>41.28099931752746</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>52.11368889882763</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P11" t="n">
-        <v>78.45608620404292</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q11" t="n">
-        <v>106.3601098520762</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R11" t="n">
-        <v>145.9840597439011</v>
+        <v>131.4512948418814</v>
       </c>
       <c r="S11" t="n">
-        <v>182.5711814737726</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T11" t="n">
-        <v>218.4903622093286</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3959862152726</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
@@ -23349,22 +23351,22 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>135.4762758837533</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H12" t="n">
-        <v>105.1802814191576</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I12" t="n">
-        <v>78.20346777140992</v>
+        <v>73.94156907472269</v>
       </c>
       <c r="J12" t="n">
-        <v>71.99338681190339</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K12" t="n">
-        <v>46.07750428554137</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L12" t="n">
-        <v>16.33620635813517</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -23373,25 +23375,25 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>26.18458021020075</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q12" t="n">
-        <v>66.6665433882805</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R12" t="n">
-        <v>108.0796117500979</v>
+        <v>100.3940782532438</v>
       </c>
       <c r="S12" t="n">
-        <v>158.8025487711757</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T12" t="n">
-        <v>196.1780027799153</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -23428,49 +23430,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.431057567854</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H13" t="n">
-        <v>157.5573113517852</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I13" t="n">
-        <v>139.9692581943449</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J13" t="n">
-        <v>91.40236859204865</v>
+        <v>84.06531662713587</v>
       </c>
       <c r="K13" t="n">
-        <v>72.51491935620854</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L13" t="n">
-        <v>63.34145120781625</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M13" t="n">
-        <v>63.57576408212509</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N13" t="n">
-        <v>54.32560202794129</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O13" t="n">
-        <v>70.18380116939908</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P13" t="n">
-        <v>78.82751991675428</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q13" t="n">
-        <v>109.3216277003259</v>
+        <v>100.6316976953354</v>
       </c>
       <c r="R13" t="n">
-        <v>152.7739102360676</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S13" t="n">
-        <v>214.366455857413</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T13" t="n">
-        <v>226.3732865346039</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -23507,49 +23509,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>413.8325483879333</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H14" t="n">
-        <v>327.6751233740921</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I14" t="n">
-        <v>165.8152863627317</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J14" t="n">
-        <v>89.76036546048012</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K14" t="n">
-        <v>84.55776703287157</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L14" t="n">
-        <v>68.55874285947689</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M14" t="n">
-        <v>45.0952138038613</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N14" t="n">
-        <v>41.28099931752746</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>52.11368889882763</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P14" t="n">
-        <v>78.45608620404292</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q14" t="n">
-        <v>106.3601098520762</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R14" t="n">
-        <v>145.9840597439011</v>
+        <v>131.4512948418814</v>
       </c>
       <c r="S14" t="n">
-        <v>182.5711814737726</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T14" t="n">
-        <v>218.4903622093286</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3959862152726</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23586,22 +23588,22 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>135.4762758837533</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H15" t="n">
-        <v>105.1802814191576</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I15" t="n">
-        <v>78.20346777140992</v>
+        <v>73.94156907472269</v>
       </c>
       <c r="J15" t="n">
-        <v>71.99338681190339</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K15" t="n">
-        <v>46.07750428554137</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L15" t="n">
-        <v>16.33620635813517</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -23610,25 +23612,25 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>26.18458021020075</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q15" t="n">
-        <v>66.6665433882805</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R15" t="n">
-        <v>108.0796117500979</v>
+        <v>100.3940782532438</v>
       </c>
       <c r="S15" t="n">
-        <v>158.8025487711757</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T15" t="n">
-        <v>196.1780027799153</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -23665,49 +23667,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.431057567854</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H16" t="n">
-        <v>157.5573113517852</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I16" t="n">
-        <v>139.9692581943449</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J16" t="n">
-        <v>91.40236859204865</v>
+        <v>84.06531662713587</v>
       </c>
       <c r="K16" t="n">
-        <v>72.51491935620854</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L16" t="n">
-        <v>63.34145120781625</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M16" t="n">
-        <v>63.57576408212509</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N16" t="n">
-        <v>54.32560202794129</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O16" t="n">
-        <v>70.18380116939908</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P16" t="n">
-        <v>78.82751991675428</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q16" t="n">
-        <v>109.3216277003259</v>
+        <v>100.6316976953354</v>
       </c>
       <c r="R16" t="n">
-        <v>152.7739102360676</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S16" t="n">
-        <v>214.366455857413</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T16" t="n">
-        <v>226.3732865346039</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
@@ -23744,49 +23746,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>413.8325483879333</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H17" t="n">
-        <v>327.6751233740921</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I17" t="n">
-        <v>165.8152863627317</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J17" t="n">
-        <v>89.76036546048012</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K17" t="n">
-        <v>84.55776703287157</v>
+        <v>55.12872290169071</v>
       </c>
       <c r="L17" t="n">
-        <v>68.55874285947689</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M17" t="n">
-        <v>45.0952138038613</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N17" t="n">
-        <v>41.28099931752746</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>52.11368889882763</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P17" t="n">
-        <v>78.45608620404292</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q17" t="n">
-        <v>106.3601098520762</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R17" t="n">
-        <v>145.9840597439011</v>
+        <v>131.4512948418814</v>
       </c>
       <c r="S17" t="n">
-        <v>182.5711814737726</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T17" t="n">
-        <v>218.4903622093286</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3959862152726</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -23823,22 +23825,22 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>135.4762758837533</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H18" t="n">
-        <v>105.1802814191576</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I18" t="n">
-        <v>78.20346777140992</v>
+        <v>73.94156907472269</v>
       </c>
       <c r="J18" t="n">
-        <v>71.99338681190339</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K18" t="n">
-        <v>46.07750428554137</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L18" t="n">
-        <v>16.33620635813517</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -23847,25 +23849,25 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>26.18458021020075</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q18" t="n">
-        <v>66.6665433882805</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R18" t="n">
-        <v>108.0796117500979</v>
+        <v>100.3940782532438</v>
       </c>
       <c r="S18" t="n">
-        <v>158.8025487711757</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T18" t="n">
-        <v>196.1780027799153</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -23902,49 +23904,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>167.431057567854</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H19" t="n">
-        <v>157.5573113517852</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I19" t="n">
-        <v>139.9692581943449</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J19" t="n">
-        <v>91.40236859204865</v>
+        <v>84.06531662713587</v>
       </c>
       <c r="K19" t="n">
-        <v>72.51491935620854</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L19" t="n">
-        <v>63.34145120781625</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M19" t="n">
-        <v>63.57576408212509</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N19" t="n">
-        <v>54.32560202794129</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O19" t="n">
-        <v>70.18380116939908</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P19" t="n">
-        <v>78.82751991675428</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q19" t="n">
-        <v>109.3216277003259</v>
+        <v>100.6316976953354</v>
       </c>
       <c r="R19" t="n">
-        <v>152.7739102360676</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S19" t="n">
-        <v>214.366455857413</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T19" t="n">
-        <v>226.3732865346039</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23981,49 +23983,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>413.8325483879333</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H20" t="n">
-        <v>327.6751233740921</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I20" t="n">
-        <v>165.8152863627317</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J20" t="n">
-        <v>89.76036546048012</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K20" t="n">
-        <v>84.55776703287157</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L20" t="n">
-        <v>68.55874285947689</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M20" t="n">
-        <v>45.0952138038613</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N20" t="n">
-        <v>41.28099931752746</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>52.11368889882766</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P20" t="n">
-        <v>78.45608620404292</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q20" t="n">
-        <v>106.3601098520762</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R20" t="n">
-        <v>145.9840597439011</v>
+        <v>131.4512948418814</v>
       </c>
       <c r="S20" t="n">
-        <v>182.5711814737726</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T20" t="n">
-        <v>218.4903622093286</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3959862152726</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
@@ -24060,22 +24062,22 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>135.4762758837533</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H21" t="n">
-        <v>105.1802814191576</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I21" t="n">
-        <v>78.20346777140993</v>
+        <v>73.94156907472269</v>
       </c>
       <c r="J21" t="n">
-        <v>71.99338681190339</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K21" t="n">
-        <v>46.07750428554137</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L21" t="n">
-        <v>16.33620635813519</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -24084,25 +24086,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>26.18458021020076</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q21" t="n">
-        <v>66.6665433882805</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R21" t="n">
-        <v>108.0796117500979</v>
+        <v>100.3940782532438</v>
       </c>
       <c r="S21" t="n">
-        <v>158.8025487711757</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T21" t="n">
-        <v>196.1780027799153</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -24139,49 +24141,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.431057567854</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H22" t="n">
-        <v>157.5573113517852</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I22" t="n">
-        <v>139.9692581943449</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J22" t="n">
-        <v>91.40236859204865</v>
+        <v>84.06531662713587</v>
       </c>
       <c r="K22" t="n">
-        <v>72.51491935620855</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L22" t="n">
-        <v>63.34145120781625</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M22" t="n">
-        <v>63.5757640821251</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N22" t="n">
-        <v>54.32560202794129</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O22" t="n">
-        <v>70.18380116939908</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P22" t="n">
-        <v>78.82751991675428</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q22" t="n">
-        <v>109.3216277003259</v>
+        <v>100.6316976953354</v>
       </c>
       <c r="R22" t="n">
-        <v>152.7739102360676</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S22" t="n">
-        <v>214.366455857413</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T22" t="n">
-        <v>226.3732865346039</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
@@ -24218,49 +24220,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>413.8325483879333</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H23" t="n">
-        <v>327.6751233740921</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I23" t="n">
-        <v>165.8152863627317</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J23" t="n">
-        <v>89.76036546048012</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K23" t="n">
-        <v>84.55776703287157</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L23" t="n">
-        <v>68.55874285947689</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M23" t="n">
-        <v>45.0952138038613</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N23" t="n">
-        <v>41.28099931752746</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>52.11368889882763</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P23" t="n">
-        <v>78.45608620404292</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q23" t="n">
-        <v>106.3601098520762</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R23" t="n">
-        <v>145.9840597439011</v>
+        <v>131.4512948418814</v>
       </c>
       <c r="S23" t="n">
-        <v>182.5711814737726</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T23" t="n">
-        <v>218.4903622093286</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3959862152726</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -24297,22 +24299,22 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>135.4762758837533</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H24" t="n">
-        <v>105.1802814191576</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I24" t="n">
-        <v>78.20346777140992</v>
+        <v>73.94156907472269</v>
       </c>
       <c r="J24" t="n">
-        <v>71.99338681190339</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K24" t="n">
-        <v>46.07750428554137</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L24" t="n">
-        <v>16.33620635813517</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -24321,25 +24323,25 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>26.18458021020075</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q24" t="n">
-        <v>66.6665433882805</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R24" t="n">
-        <v>108.0796117500979</v>
+        <v>100.3940782532438</v>
       </c>
       <c r="S24" t="n">
-        <v>158.8025487711757</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T24" t="n">
-        <v>196.1780027799153</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -24376,49 +24378,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.431057567854</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H25" t="n">
-        <v>157.5573113517852</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I25" t="n">
-        <v>139.9692581943449</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J25" t="n">
-        <v>91.40236859204865</v>
+        <v>84.06531662713587</v>
       </c>
       <c r="K25" t="n">
-        <v>72.51491935620854</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L25" t="n">
-        <v>63.34145120781625</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M25" t="n">
-        <v>63.57576408212509</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N25" t="n">
-        <v>54.32560202794129</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O25" t="n">
-        <v>70.18380116939908</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P25" t="n">
-        <v>78.82751991675428</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q25" t="n">
-        <v>109.3216277003259</v>
+        <v>100.6316976953354</v>
       </c>
       <c r="R25" t="n">
-        <v>152.7739102360676</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S25" t="n">
-        <v>214.366455857413</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T25" t="n">
-        <v>226.3732865346039</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
@@ -24455,49 +24457,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>413.8325483879333</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H26" t="n">
-        <v>327.6751233740921</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I26" t="n">
-        <v>165.8152863627317</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J26" t="n">
-        <v>89.76036546048012</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K26" t="n">
-        <v>84.55776703287157</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L26" t="n">
-        <v>68.55874285947689</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M26" t="n">
-        <v>45.0952138038613</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N26" t="n">
-        <v>41.28099931752746</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>52.11368889882763</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P26" t="n">
-        <v>78.45608620404292</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q26" t="n">
-        <v>106.3601098520762</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R26" t="n">
-        <v>145.9840597439011</v>
+        <v>131.4512948418814</v>
       </c>
       <c r="S26" t="n">
-        <v>182.5711814737726</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T26" t="n">
-        <v>218.4903622093286</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3959862152726</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24534,22 +24536,22 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.4762758837533</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H27" t="n">
-        <v>105.1802814191576</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I27" t="n">
-        <v>78.20346777140992</v>
+        <v>73.94156907472269</v>
       </c>
       <c r="J27" t="n">
-        <v>71.99338681190339</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K27" t="n">
-        <v>46.07750428554137</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L27" t="n">
-        <v>16.33620635813517</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -24558,25 +24560,25 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>26.18458021020075</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q27" t="n">
-        <v>66.6665433882805</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R27" t="n">
-        <v>108.0796117500979</v>
+        <v>100.3940782532438</v>
       </c>
       <c r="S27" t="n">
-        <v>158.8025487711757</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T27" t="n">
-        <v>196.1780027799153</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -24613,49 +24615,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.431057567854</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H28" t="n">
-        <v>157.5573113517852</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I28" t="n">
-        <v>139.9692581943449</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J28" t="n">
-        <v>91.40236859204865</v>
+        <v>84.06531662713587</v>
       </c>
       <c r="K28" t="n">
-        <v>72.51491935620854</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L28" t="n">
-        <v>63.34145120781625</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M28" t="n">
-        <v>63.57576408212509</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N28" t="n">
-        <v>54.32560202794129</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O28" t="n">
-        <v>70.18380116939908</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P28" t="n">
-        <v>78.82751991675428</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q28" t="n">
-        <v>109.3216277003259</v>
+        <v>100.6316976953354</v>
       </c>
       <c r="R28" t="n">
-        <v>152.7739102360676</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S28" t="n">
-        <v>214.366455857413</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T28" t="n">
-        <v>226.3732865346039</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24692,49 +24694,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>413.8325483879333</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H29" t="n">
-        <v>327.6751233740921</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I29" t="n">
-        <v>165.8152863627317</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J29" t="n">
-        <v>89.76036546048012</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K29" t="n">
-        <v>84.55776703287157</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L29" t="n">
-        <v>68.55874285947689</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M29" t="n">
-        <v>45.0952138038613</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N29" t="n">
-        <v>41.28099931752746</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>52.11368889882763</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P29" t="n">
-        <v>78.45608620404292</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q29" t="n">
-        <v>106.3601098520762</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R29" t="n">
-        <v>145.9840597439011</v>
+        <v>131.4512948418814</v>
       </c>
       <c r="S29" t="n">
-        <v>182.5711814737726</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T29" t="n">
-        <v>218.4903622093286</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3959862152726</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
@@ -24771,22 +24773,22 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>135.4762758837533</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H30" t="n">
-        <v>105.1802814191576</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I30" t="n">
-        <v>78.20346777140992</v>
+        <v>73.94156907472269</v>
       </c>
       <c r="J30" t="n">
-        <v>71.99338681190339</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K30" t="n">
-        <v>46.07750428554137</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L30" t="n">
-        <v>16.33620635813517</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -24795,25 +24797,25 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>26.18458021020075</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q30" t="n">
-        <v>66.6665433882805</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R30" t="n">
-        <v>108.0796117500979</v>
+        <v>100.3940782532438</v>
       </c>
       <c r="S30" t="n">
-        <v>158.8025487711757</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T30" t="n">
-        <v>196.1780027799153</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -24850,49 +24852,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.431057567854</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H31" t="n">
-        <v>157.5573113517852</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I31" t="n">
-        <v>139.9692581943449</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J31" t="n">
-        <v>91.40236859204865</v>
+        <v>84.06531662713587</v>
       </c>
       <c r="K31" t="n">
-        <v>72.51491935620854</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L31" t="n">
-        <v>63.34145120781625</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M31" t="n">
-        <v>63.57576408212509</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N31" t="n">
-        <v>54.32560202794129</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O31" t="n">
-        <v>70.18380116939908</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P31" t="n">
-        <v>78.82751991675428</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q31" t="n">
-        <v>109.3216277003259</v>
+        <v>100.6316976953354</v>
       </c>
       <c r="R31" t="n">
-        <v>152.7739102360676</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S31" t="n">
-        <v>214.366455857413</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T31" t="n">
-        <v>226.3732865346039</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24929,49 +24931,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>413.8325483879333</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H32" t="n">
-        <v>327.6751233740921</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I32" t="n">
-        <v>165.8152863627317</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J32" t="n">
-        <v>89.76036546048012</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K32" t="n">
-        <v>84.55776703287157</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L32" t="n">
-        <v>68.55874285947689</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M32" t="n">
-        <v>45.0952138038613</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N32" t="n">
-        <v>41.28099931752746</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>52.11368889882763</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P32" t="n">
-        <v>78.45608620404292</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3601098520762</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R32" t="n">
-        <v>145.9840597439011</v>
+        <v>131.4512948418814</v>
       </c>
       <c r="S32" t="n">
-        <v>182.5711814737726</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T32" t="n">
-        <v>218.4903622093286</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3959862152726</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
@@ -25008,22 +25010,22 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.4762758837533</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H33" t="n">
-        <v>105.1802814191576</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I33" t="n">
-        <v>78.20346777140992</v>
+        <v>73.94156907472269</v>
       </c>
       <c r="J33" t="n">
-        <v>71.99338681190339</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K33" t="n">
-        <v>46.07750428554137</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L33" t="n">
-        <v>16.33620635813517</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -25032,25 +25034,25 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>26.18458021020075</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q33" t="n">
-        <v>66.6665433882805</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R33" t="n">
-        <v>108.0796117500979</v>
+        <v>100.3940782532438</v>
       </c>
       <c r="S33" t="n">
-        <v>158.8025487711757</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T33" t="n">
-        <v>196.1780027799153</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -25087,49 +25089,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.431057567854</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H34" t="n">
-        <v>157.5573113517852</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I34" t="n">
-        <v>139.9692581943449</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J34" t="n">
-        <v>91.40236859204865</v>
+        <v>84.06531662713587</v>
       </c>
       <c r="K34" t="n">
-        <v>72.51491935620854</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L34" t="n">
-        <v>63.34145120781625</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M34" t="n">
-        <v>63.57576408212509</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N34" t="n">
-        <v>54.32560202794129</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O34" t="n">
-        <v>70.18380116939908</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P34" t="n">
-        <v>78.82751991675428</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.3216277003259</v>
+        <v>100.6316976953354</v>
       </c>
       <c r="R34" t="n">
-        <v>152.7739102360676</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S34" t="n">
-        <v>214.366455857413</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T34" t="n">
-        <v>226.3732865346039</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
@@ -25166,49 +25168,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>413.8325483879333</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H35" t="n">
-        <v>327.6751233740921</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I35" t="n">
-        <v>165.8152863627317</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J35" t="n">
-        <v>89.76036546048012</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K35" t="n">
-        <v>84.55776703287157</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L35" t="n">
-        <v>68.55874285947689</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M35" t="n">
-        <v>45.0952138038613</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N35" t="n">
-        <v>41.28099931752746</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>52.11368889882763</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P35" t="n">
-        <v>78.45608620404292</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q35" t="n">
-        <v>106.3601098520762</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R35" t="n">
-        <v>145.9840597439011</v>
+        <v>131.4512948418814</v>
       </c>
       <c r="S35" t="n">
-        <v>182.5711814737726</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T35" t="n">
-        <v>218.4903622093286</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3959862152726</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
@@ -25245,22 +25247,22 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.4762758837533</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H36" t="n">
-        <v>105.1802814191576</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I36" t="n">
-        <v>78.20346777140992</v>
+        <v>73.94156907472269</v>
       </c>
       <c r="J36" t="n">
-        <v>71.99338681190339</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K36" t="n">
-        <v>46.07750428554137</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L36" t="n">
-        <v>16.33620635813517</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -25269,25 +25271,25 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>26.18458021020075</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q36" t="n">
-        <v>66.6665433882805</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R36" t="n">
-        <v>108.0796117500979</v>
+        <v>100.3940782532438</v>
       </c>
       <c r="S36" t="n">
-        <v>158.8025487711757</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T36" t="n">
-        <v>196.1780027799153</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -25324,49 +25326,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.431057567854</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H37" t="n">
-        <v>157.5573113517852</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I37" t="n">
-        <v>139.9692581943449</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J37" t="n">
-        <v>91.40236859204865</v>
+        <v>84.06531662713587</v>
       </c>
       <c r="K37" t="n">
-        <v>72.51491935620854</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L37" t="n">
-        <v>63.34145120781625</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M37" t="n">
-        <v>63.57576408212509</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N37" t="n">
-        <v>54.32560202794129</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O37" t="n">
-        <v>70.18380116939908</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P37" t="n">
-        <v>78.82751991675428</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.3216277003259</v>
+        <v>100.6316976953354</v>
       </c>
       <c r="R37" t="n">
-        <v>152.7739102360676</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S37" t="n">
-        <v>214.366455857413</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T37" t="n">
-        <v>226.3732865346039</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25403,49 +25405,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>413.8325483879333</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H38" t="n">
-        <v>327.6751233740921</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I38" t="n">
-        <v>165.8152863627317</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J38" t="n">
-        <v>89.76036546048012</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K38" t="n">
-        <v>84.55776703287157</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L38" t="n">
-        <v>68.55874285947689</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M38" t="n">
-        <v>45.0952138038613</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N38" t="n">
-        <v>41.28099931752746</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>52.11368889882763</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P38" t="n">
-        <v>78.45608620404292</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q38" t="n">
-        <v>106.3601098520762</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R38" t="n">
-        <v>145.9840597439011</v>
+        <v>131.4512948418814</v>
       </c>
       <c r="S38" t="n">
-        <v>182.5711814737726</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T38" t="n">
-        <v>218.4903622093286</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3959862152726</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
@@ -25482,22 +25484,22 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>135.4762758837533</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H39" t="n">
-        <v>105.1802814191576</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I39" t="n">
-        <v>78.20346777140992</v>
+        <v>73.94156907472269</v>
       </c>
       <c r="J39" t="n">
-        <v>71.99338681190339</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K39" t="n">
-        <v>46.07750428554137</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L39" t="n">
-        <v>16.33620635813517</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -25506,25 +25508,25 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>26.18458021020075</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q39" t="n">
-        <v>66.6665433882805</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R39" t="n">
-        <v>108.0796117500979</v>
+        <v>100.3940782532438</v>
       </c>
       <c r="S39" t="n">
-        <v>158.8025487711757</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T39" t="n">
-        <v>196.1780027799153</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -25561,49 +25563,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.431057567854</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H40" t="n">
-        <v>157.5573113517852</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I40" t="n">
-        <v>139.9692581943449</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J40" t="n">
-        <v>91.40236859204865</v>
+        <v>84.06531662713587</v>
       </c>
       <c r="K40" t="n">
-        <v>72.51491935620854</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L40" t="n">
-        <v>63.34145120781625</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M40" t="n">
-        <v>63.57576408212509</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N40" t="n">
-        <v>54.32560202794129</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O40" t="n">
-        <v>70.18380116939908</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P40" t="n">
-        <v>78.82751991675428</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q40" t="n">
-        <v>109.3216277003259</v>
+        <v>100.6316976953354</v>
       </c>
       <c r="R40" t="n">
-        <v>152.7739102360676</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S40" t="n">
-        <v>214.366455857413</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T40" t="n">
-        <v>226.3732865346039</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25640,49 +25642,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>413.8325483879333</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H41" t="n">
-        <v>327.6751233740921</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I41" t="n">
-        <v>165.8152863627317</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J41" t="n">
-        <v>89.76036546048012</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K41" t="n">
-        <v>84.55776703287157</v>
+        <v>55.12872290169071</v>
       </c>
       <c r="L41" t="n">
-        <v>68.55874285947689</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M41" t="n">
-        <v>45.0952138038613</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N41" t="n">
-        <v>41.28099931752746</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>52.11368889882763</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P41" t="n">
-        <v>78.45608620404292</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q41" t="n">
-        <v>106.3601098520762</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R41" t="n">
-        <v>145.9840597439011</v>
+        <v>131.4512948418814</v>
       </c>
       <c r="S41" t="n">
-        <v>182.5711814737726</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T41" t="n">
-        <v>218.4903622093286</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3959862152726</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
@@ -25719,22 +25721,22 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.4762758837533</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H42" t="n">
-        <v>105.1802814191576</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I42" t="n">
-        <v>78.20346777140992</v>
+        <v>73.94156907472269</v>
       </c>
       <c r="J42" t="n">
-        <v>71.99338681190339</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K42" t="n">
-        <v>46.07750428554137</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L42" t="n">
-        <v>16.33620635813517</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -25743,25 +25745,25 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>26.18458021020075</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q42" t="n">
-        <v>66.6665433882805</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R42" t="n">
-        <v>108.0796117500979</v>
+        <v>100.3940782532438</v>
       </c>
       <c r="S42" t="n">
-        <v>158.8025487711757</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T42" t="n">
-        <v>196.1780027799153</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -25798,49 +25800,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.431057567854</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H43" t="n">
-        <v>157.5573113517852</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I43" t="n">
-        <v>139.9692581943449</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J43" t="n">
-        <v>91.40236859204865</v>
+        <v>84.06531662713587</v>
       </c>
       <c r="K43" t="n">
-        <v>72.51491935620854</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L43" t="n">
-        <v>63.34145120781625</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M43" t="n">
-        <v>63.57576408212509</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N43" t="n">
-        <v>54.32560202794129</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O43" t="n">
-        <v>70.18380116939908</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P43" t="n">
-        <v>78.82751991675428</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q43" t="n">
-        <v>109.3216277003259</v>
+        <v>100.6316976953354</v>
       </c>
       <c r="R43" t="n">
-        <v>152.7739102360676</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S43" t="n">
-        <v>214.366455857413</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T43" t="n">
-        <v>226.3732865346039</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25877,49 +25879,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>413.8325483879333</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H44" t="n">
-        <v>327.6751233740921</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I44" t="n">
-        <v>165.8152863627317</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J44" t="n">
-        <v>89.76036546048012</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K44" t="n">
-        <v>84.55776703287157</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L44" t="n">
-        <v>68.55874285947689</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M44" t="n">
-        <v>45.0952138038613</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N44" t="n">
-        <v>41.28099931752746</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>52.11368889882763</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P44" t="n">
-        <v>78.45608620404292</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q44" t="n">
-        <v>106.3601098520762</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R44" t="n">
-        <v>145.9840597439011</v>
+        <v>131.4512948418814</v>
       </c>
       <c r="S44" t="n">
-        <v>182.5711814737726</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T44" t="n">
-        <v>218.4903622093286</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3959862152726</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25956,22 +25958,22 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.4762758837533</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H45" t="n">
-        <v>105.1802814191576</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I45" t="n">
-        <v>78.20346777140992</v>
+        <v>73.94156907472269</v>
       </c>
       <c r="J45" t="n">
-        <v>71.99338681190339</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K45" t="n">
-        <v>46.07750428554137</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L45" t="n">
-        <v>16.33620635813517</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -25980,25 +25982,25 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>8.901750057177253</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>26.18458021020075</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q45" t="n">
-        <v>66.6665433882805</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R45" t="n">
-        <v>108.0796117500979</v>
+        <v>100.3940782532438</v>
       </c>
       <c r="S45" t="n">
-        <v>158.8025487711757</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T45" t="n">
-        <v>196.1780027799153</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -26035,49 +26037,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.431057567854</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H46" t="n">
-        <v>157.5573113517852</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I46" t="n">
-        <v>139.9692581943449</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J46" t="n">
-        <v>91.40236859204865</v>
+        <v>84.06531662713587</v>
       </c>
       <c r="K46" t="n">
-        <v>72.51491935620854</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L46" t="n">
-        <v>63.34145120781625</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M46" t="n">
-        <v>63.57576408212509</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N46" t="n">
-        <v>54.32560202794129</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O46" t="n">
-        <v>70.18380116939908</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P46" t="n">
-        <v>78.82751991675428</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q46" t="n">
-        <v>109.3216277003259</v>
+        <v>100.6316976953354</v>
       </c>
       <c r="R46" t="n">
-        <v>152.7739102360676</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S46" t="n">
-        <v>214.366455857413</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T46" t="n">
-        <v>226.3732865346039</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>236005.481280791</v>
+        <v>283507.122214012</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>236005.481280791</v>
+        <v>283507.122214012</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>236005.481280791</v>
+        <v>283507.122214012</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>236005.481280791</v>
+        <v>283507.122214012</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>236005.481280791</v>
+        <v>283507.122214012</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>236005.481280791</v>
+        <v>283507.122214012</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>236005.481280791</v>
+        <v>283507.122214012</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>236005.481280791</v>
+        <v>283507.122214012</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>236005.481280791</v>
+        <v>283507.122214012</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>236005.481280791</v>
+        <v>283507.122214012</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>236005.481280791</v>
+        <v>283507.122214012</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>236005.481280791</v>
+        <v>283507.122214012</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>34820.48084470688</v>
+        <v>41828.9196709198</v>
       </c>
       <c r="F2" t="n">
-        <v>34820.48084470689</v>
+        <v>41828.9196709198</v>
       </c>
       <c r="G2" t="n">
-        <v>34820.48084470689</v>
+        <v>41828.91967091981</v>
       </c>
       <c r="H2" t="n">
-        <v>34820.48084470688</v>
+        <v>41828.91967091981</v>
       </c>
       <c r="I2" t="n">
-        <v>34820.48084470688</v>
+        <v>41828.9196709198</v>
       </c>
       <c r="J2" t="n">
-        <v>34820.48084470688</v>
+        <v>41828.9196709198</v>
       </c>
       <c r="K2" t="n">
-        <v>34820.48084470688</v>
+        <v>41828.91967091981</v>
       </c>
       <c r="L2" t="n">
-        <v>34820.48084470688</v>
+        <v>41828.9196709198</v>
       </c>
       <c r="M2" t="n">
-        <v>34820.48084470688</v>
+        <v>41828.9196709198</v>
       </c>
       <c r="N2" t="n">
-        <v>34820.48084470688</v>
+        <v>41828.9196709198</v>
       </c>
       <c r="O2" t="n">
-        <v>34820.48084470688</v>
+        <v>41828.91967091981</v>
       </c>
       <c r="P2" t="n">
-        <v>34820.48084470688</v>
+        <v>41828.91967091981</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>204286.4890342661</v>
+        <v>250521.6932448584</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>5543.227322958715</v>
+        <v>6797.799999175896</v>
       </c>
       <c r="F5" t="n">
-        <v>5543.227322958715</v>
+        <v>6797.799999175896</v>
       </c>
       <c r="G5" t="n">
-        <v>5543.227322958715</v>
+        <v>6797.799999175896</v>
       </c>
       <c r="H5" t="n">
-        <v>5543.227322958715</v>
+        <v>6797.799999175896</v>
       </c>
       <c r="I5" t="n">
-        <v>5543.227322958715</v>
+        <v>6797.799999175896</v>
       </c>
       <c r="J5" t="n">
-        <v>5543.227322958715</v>
+        <v>6797.799999175896</v>
       </c>
       <c r="K5" t="n">
-        <v>5543.227322958715</v>
+        <v>6797.799999175896</v>
       </c>
       <c r="L5" t="n">
-        <v>5543.227322958715</v>
+        <v>6797.799999175896</v>
       </c>
       <c r="M5" t="n">
-        <v>5543.227322958715</v>
+        <v>6797.799999175896</v>
       </c>
       <c r="N5" t="n">
-        <v>5543.227322958715</v>
+        <v>6797.799999175896</v>
       </c>
       <c r="O5" t="n">
-        <v>5543.227322958715</v>
+        <v>6797.799999175896</v>
       </c>
       <c r="P5" t="n">
-        <v>5543.227322958715</v>
+        <v>6797.799999175896</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-175009.2355125179</v>
+        <v>-215490.5735731144</v>
       </c>
       <c r="F6" t="n">
-        <v>29277.25352174817</v>
+        <v>35031.1196717439</v>
       </c>
       <c r="G6" t="n">
-        <v>29277.25352174817</v>
+        <v>35031.11967174391</v>
       </c>
       <c r="H6" t="n">
-        <v>29277.25352174816</v>
+        <v>35031.11967174391</v>
       </c>
       <c r="I6" t="n">
-        <v>29277.25352174816</v>
+        <v>35031.1196717439</v>
       </c>
       <c r="J6" t="n">
-        <v>29277.25352174816</v>
+        <v>35031.1196717439</v>
       </c>
       <c r="K6" t="n">
-        <v>29277.25352174816</v>
+        <v>35031.11967174391</v>
       </c>
       <c r="L6" t="n">
-        <v>29277.25352174816</v>
+        <v>35031.1196717439</v>
       </c>
       <c r="M6" t="n">
-        <v>29277.25352174816</v>
+        <v>35031.1196717439</v>
       </c>
       <c r="N6" t="n">
-        <v>29277.25352174816</v>
+        <v>35031.1196717439</v>
       </c>
       <c r="O6" t="n">
-        <v>29277.25352174816</v>
+        <v>35031.11967174392</v>
       </c>
       <c r="P6" t="n">
-        <v>29277.25352174816</v>
+        <v>35031.11967174391</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>254.2764827045282</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="F3" t="n">
-        <v>254.2764827045282</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="G3" t="n">
-        <v>254.2764827045282</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="H3" t="n">
-        <v>254.2764827045282</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="I3" t="n">
-        <v>254.2764827045282</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="J3" t="n">
-        <v>254.2764827045282</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="K3" t="n">
-        <v>254.2764827045282</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="L3" t="n">
-        <v>254.2764827045282</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="M3" t="n">
-        <v>254.2764827045282</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="N3" t="n">
-        <v>254.2764827045282</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="O3" t="n">
-        <v>254.2764827045282</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="P3" t="n">
-        <v>254.2764827045282</v>
+        <v>311.8256880355916</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>254.2764827045282</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.0222170158976</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H11" t="n">
-        <v>10.4687800140613</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I11" t="n">
-        <v>39.40902150539227</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J11" t="n">
-        <v>86.75939145303902</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K11" t="n">
-        <v>130.0298377359845</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L11" t="n">
-        <v>161.3135117362607</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M11" t="n">
-        <v>179.4923635927296</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N11" t="n">
-        <v>182.3967376891487</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O11" t="n">
-        <v>172.2320672373169</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P11" t="n">
-        <v>146.9960846573449</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q11" t="n">
-        <v>110.387937775512</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R11" t="n">
-        <v>64.21183962487768</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S11" t="n">
-        <v>23.29377024976659</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T11" t="n">
-        <v>4.474754987091747</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U11" t="n">
-        <v>0.081777361271808</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H12" t="n">
-        <v>5.282234102975201</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I12" t="n">
-        <v>18.83085272859007</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J12" t="n">
-        <v>51.67329918809664</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K12" t="n">
-        <v>88.31789871445865</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L12" t="n">
-        <v>118.7543139272422</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M12" t="n">
         <v>138.5806830739679</v>
@@ -31853,25 +31855,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O12" t="n">
-        <v>130.1295882761561</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P12" t="n">
-        <v>104.4404670187712</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q12" t="n">
-        <v>69.81568634559048</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R12" t="n">
-        <v>33.95790461476701</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S12" t="n">
-        <v>10.15906513446865</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T12" t="n">
-        <v>2.204529128353409</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4585313622540673</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H13" t="n">
-        <v>4.07676065713162</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I13" t="n">
-        <v>13.78928860305868</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J13" t="n">
-        <v>32.41816731136255</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K13" t="n">
-        <v>53.27300736006344</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L13" t="n">
-        <v>68.17110816639106</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M13" t="n">
-        <v>71.87687526678982</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N13" t="n">
-        <v>70.16780382566108</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O13" t="n">
-        <v>64.81132382114764</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P13" t="n">
-        <v>55.45728403116462</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.39574888838376</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R13" t="n">
-        <v>20.61723743371469</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S13" t="n">
-        <v>7.990951104009515</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T13" t="n">
-        <v>1.959179456903742</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02501080157749461</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.0222170158976</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H14" t="n">
-        <v>10.4687800140613</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I14" t="n">
-        <v>39.40902150539227</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J14" t="n">
-        <v>86.75939145303902</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K14" t="n">
-        <v>130.0298377359845</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L14" t="n">
-        <v>161.3135117362607</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M14" t="n">
-        <v>179.4923635927296</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N14" t="n">
-        <v>182.3967376891487</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O14" t="n">
-        <v>172.2320672373169</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P14" t="n">
-        <v>146.9960846573449</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q14" t="n">
-        <v>110.387937775512</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R14" t="n">
-        <v>64.21183962487768</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S14" t="n">
-        <v>23.29377024976659</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T14" t="n">
-        <v>4.474754987091747</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U14" t="n">
-        <v>0.081777361271808</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H15" t="n">
-        <v>5.282234102975201</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I15" t="n">
-        <v>18.83085272859007</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J15" t="n">
-        <v>51.67329918809664</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K15" t="n">
-        <v>88.31789871445865</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L15" t="n">
-        <v>118.7543139272422</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M15" t="n">
         <v>138.5806830739679</v>
@@ -32090,25 +32092,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O15" t="n">
-        <v>130.1295882761561</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P15" t="n">
-        <v>104.4404670187712</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q15" t="n">
-        <v>69.81568634559048</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R15" t="n">
-        <v>33.95790461476701</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S15" t="n">
-        <v>10.15906513446865</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T15" t="n">
-        <v>2.204529128353409</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4585313622540673</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H16" t="n">
-        <v>4.07676065713162</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I16" t="n">
-        <v>13.78928860305868</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J16" t="n">
-        <v>32.41816731136255</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K16" t="n">
-        <v>53.27300736006344</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L16" t="n">
-        <v>68.17110816639106</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M16" t="n">
-        <v>71.87687526678982</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N16" t="n">
-        <v>70.16780382566108</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O16" t="n">
-        <v>64.81132382114764</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P16" t="n">
-        <v>55.45728403116462</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.39574888838376</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R16" t="n">
-        <v>20.61723743371469</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S16" t="n">
-        <v>7.990951104009515</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T16" t="n">
-        <v>1.959179456903742</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02501080157749461</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.0222170158976</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H17" t="n">
-        <v>10.4687800140613</v>
+        <v>12.83812996017889</v>
       </c>
       <c r="I17" t="n">
-        <v>39.40902150539227</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J17" t="n">
-        <v>86.75939145303902</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K17" t="n">
-        <v>130.0298377359845</v>
+        <v>159.4588818671653</v>
       </c>
       <c r="L17" t="n">
-        <v>161.3135117362607</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M17" t="n">
-        <v>179.4923635927296</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N17" t="n">
-        <v>182.3967376891487</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O17" t="n">
-        <v>172.2320672373169</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P17" t="n">
-        <v>146.9960846573449</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q17" t="n">
-        <v>110.387937775512</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R17" t="n">
-        <v>64.21183962487768</v>
+        <v>78.74460452689742</v>
       </c>
       <c r="S17" t="n">
-        <v>23.29377024976659</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T17" t="n">
-        <v>4.474754987091747</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U17" t="n">
-        <v>0.081777361271808</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.6707194044539139</v>
       </c>
       <c r="H18" t="n">
-        <v>5.282234102975201</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I18" t="n">
-        <v>18.83085272859007</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J18" t="n">
-        <v>51.67329918809664</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K18" t="n">
-        <v>88.31789871445865</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L18" t="n">
-        <v>118.7543139272422</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M18" t="n">
         <v>138.5806830739679</v>
@@ -32327,25 +32329,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O18" t="n">
-        <v>130.1295882761561</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P18" t="n">
-        <v>104.4404670187712</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q18" t="n">
-        <v>69.81568634559048</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R18" t="n">
-        <v>33.95790461476701</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S18" t="n">
-        <v>10.15906513446865</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T18" t="n">
-        <v>2.204529128353409</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4585313622540673</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H19" t="n">
-        <v>4.07676065713162</v>
+        <v>4.999434801619816</v>
       </c>
       <c r="I19" t="n">
-        <v>13.78928860305868</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J19" t="n">
-        <v>32.41816731136255</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K19" t="n">
-        <v>53.27300736006344</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L19" t="n">
-        <v>68.17110816639106</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M19" t="n">
-        <v>71.87687526678982</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N19" t="n">
-        <v>70.16780382566108</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O19" t="n">
-        <v>64.81132382114764</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P19" t="n">
-        <v>55.45728403116462</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.39574888838376</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R19" t="n">
-        <v>20.61723743371469</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S19" t="n">
-        <v>7.990951104009515</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T19" t="n">
-        <v>1.959179456903742</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02501080157749461</v>
+        <v>0.03067137915104183</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.0222170158976</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H20" t="n">
-        <v>10.4687800140613</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I20" t="n">
-        <v>39.40902150539227</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J20" t="n">
-        <v>86.75939145303902</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K20" t="n">
-        <v>130.0298377359845</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L20" t="n">
-        <v>161.3135117362607</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M20" t="n">
-        <v>179.4923635927296</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N20" t="n">
-        <v>182.3967376891487</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O20" t="n">
-        <v>172.2320672373169</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P20" t="n">
-        <v>146.9960846573449</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q20" t="n">
-        <v>110.387937775512</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R20" t="n">
-        <v>64.21183962487768</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S20" t="n">
-        <v>23.29377024976659</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T20" t="n">
-        <v>4.474754987091746</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U20" t="n">
-        <v>0.081777361271808</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H21" t="n">
-        <v>5.282234102975201</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I21" t="n">
-        <v>18.83085272859006</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J21" t="n">
-        <v>51.67329918809664</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K21" t="n">
-        <v>88.31789871445865</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L21" t="n">
-        <v>118.7543139272422</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M21" t="n">
         <v>138.5806830739679</v>
@@ -32564,25 +32566,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O21" t="n">
-        <v>130.1295882761561</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P21" t="n">
-        <v>104.4404670187712</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q21" t="n">
-        <v>69.81568634559048</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R21" t="n">
-        <v>33.95790461476701</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S21" t="n">
-        <v>10.15906513446865</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T21" t="n">
-        <v>2.204529128353409</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4585313622540672</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H22" t="n">
-        <v>4.076760657131619</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I22" t="n">
-        <v>13.78928860305868</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J22" t="n">
-        <v>32.41816731136255</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K22" t="n">
-        <v>53.27300736006343</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L22" t="n">
-        <v>68.17110816639106</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M22" t="n">
-        <v>71.87687526678981</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N22" t="n">
-        <v>70.16780382566108</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O22" t="n">
-        <v>64.81132382114764</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P22" t="n">
-        <v>55.45728403116462</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.39574888838376</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R22" t="n">
-        <v>20.61723743371469</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S22" t="n">
-        <v>7.990951104009515</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T22" t="n">
-        <v>1.959179456903741</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0250108015774946</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.0222170158976</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H23" t="n">
-        <v>10.4687800140613</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I23" t="n">
-        <v>39.40902150539227</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J23" t="n">
-        <v>86.75939145303902</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K23" t="n">
-        <v>130.0298377359845</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L23" t="n">
-        <v>161.3135117362607</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M23" t="n">
-        <v>179.4923635927296</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N23" t="n">
-        <v>182.3967376891487</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O23" t="n">
-        <v>172.2320672373169</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P23" t="n">
-        <v>146.9960846573449</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q23" t="n">
-        <v>110.387937775512</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R23" t="n">
-        <v>64.21183962487768</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S23" t="n">
-        <v>23.29377024976659</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T23" t="n">
-        <v>4.474754987091747</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U23" t="n">
-        <v>0.081777361271808</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H24" t="n">
-        <v>5.282234102975201</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I24" t="n">
-        <v>18.83085272859007</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J24" t="n">
-        <v>51.67329918809664</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K24" t="n">
-        <v>88.31789871445865</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L24" t="n">
-        <v>118.7543139272422</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M24" t="n">
         <v>138.5806830739679</v>
@@ -32801,25 +32803,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O24" t="n">
-        <v>130.1295882761561</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P24" t="n">
-        <v>104.4404670187712</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q24" t="n">
-        <v>69.81568634559048</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R24" t="n">
-        <v>33.95790461476701</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S24" t="n">
-        <v>10.15906513446865</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T24" t="n">
-        <v>2.204529128353409</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4585313622540673</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H25" t="n">
-        <v>4.07676065713162</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I25" t="n">
-        <v>13.78928860305868</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J25" t="n">
-        <v>32.41816731136255</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K25" t="n">
-        <v>53.27300736006344</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L25" t="n">
-        <v>68.17110816639106</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M25" t="n">
-        <v>71.87687526678982</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N25" t="n">
-        <v>70.16780382566108</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O25" t="n">
-        <v>64.81132382114764</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P25" t="n">
-        <v>55.45728403116462</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.39574888838376</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R25" t="n">
-        <v>20.61723743371469</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S25" t="n">
-        <v>7.990951104009515</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T25" t="n">
-        <v>1.959179456903742</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02501080157749461</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.0222170158976</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H26" t="n">
-        <v>10.4687800140613</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I26" t="n">
-        <v>39.40902150539227</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J26" t="n">
-        <v>86.75939145303902</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K26" t="n">
-        <v>130.0298377359845</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L26" t="n">
-        <v>161.3135117362607</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M26" t="n">
-        <v>179.4923635927296</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N26" t="n">
-        <v>182.3967376891487</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O26" t="n">
-        <v>172.2320672373169</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P26" t="n">
-        <v>146.9960846573449</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q26" t="n">
-        <v>110.387937775512</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R26" t="n">
-        <v>64.21183962487768</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S26" t="n">
-        <v>23.29377024976659</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T26" t="n">
-        <v>4.474754987091747</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U26" t="n">
-        <v>0.081777361271808</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H27" t="n">
-        <v>5.282234102975201</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I27" t="n">
-        <v>18.83085272859007</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J27" t="n">
-        <v>51.67329918809664</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K27" t="n">
-        <v>88.31789871445865</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L27" t="n">
-        <v>118.7543139272422</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M27" t="n">
         <v>138.5806830739679</v>
@@ -33038,25 +33040,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O27" t="n">
-        <v>130.1295882761561</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P27" t="n">
-        <v>104.4404670187712</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q27" t="n">
-        <v>69.81568634559048</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R27" t="n">
-        <v>33.95790461476701</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S27" t="n">
-        <v>10.15906513446865</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T27" t="n">
-        <v>2.204529128353409</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4585313622540673</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H28" t="n">
-        <v>4.07676065713162</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I28" t="n">
-        <v>13.78928860305868</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J28" t="n">
-        <v>32.41816731136255</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K28" t="n">
-        <v>53.27300736006344</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L28" t="n">
-        <v>68.17110816639106</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M28" t="n">
-        <v>71.87687526678982</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N28" t="n">
-        <v>70.16780382566108</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O28" t="n">
-        <v>64.81132382114764</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P28" t="n">
-        <v>55.45728403116462</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q28" t="n">
-        <v>38.39574888838376</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R28" t="n">
-        <v>20.61723743371469</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S28" t="n">
-        <v>7.990951104009515</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T28" t="n">
-        <v>1.959179456903742</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02501080157749461</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.0222170158976</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H29" t="n">
-        <v>10.4687800140613</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I29" t="n">
-        <v>39.40902150539227</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J29" t="n">
-        <v>86.75939145303902</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K29" t="n">
-        <v>130.0298377359845</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L29" t="n">
-        <v>161.3135117362607</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M29" t="n">
-        <v>179.4923635927296</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N29" t="n">
-        <v>182.3967376891487</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O29" t="n">
-        <v>172.2320672373169</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P29" t="n">
-        <v>146.9960846573449</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q29" t="n">
-        <v>110.387937775512</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R29" t="n">
-        <v>64.21183962487768</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S29" t="n">
-        <v>23.29377024976659</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T29" t="n">
-        <v>4.474754987091747</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U29" t="n">
-        <v>0.081777361271808</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H30" t="n">
-        <v>5.282234102975201</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I30" t="n">
-        <v>18.83085272859007</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J30" t="n">
-        <v>51.67329918809664</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K30" t="n">
-        <v>88.31789871445865</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L30" t="n">
-        <v>118.7543139272422</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M30" t="n">
         <v>138.5806830739679</v>
@@ -33275,25 +33277,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O30" t="n">
-        <v>130.1295882761561</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P30" t="n">
-        <v>104.4404670187712</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q30" t="n">
-        <v>69.81568634559048</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R30" t="n">
-        <v>33.95790461476701</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S30" t="n">
-        <v>10.15906513446865</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T30" t="n">
-        <v>2.204529128353409</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4585313622540673</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H31" t="n">
-        <v>4.07676065713162</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I31" t="n">
-        <v>13.78928860305868</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J31" t="n">
-        <v>32.41816731136255</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K31" t="n">
-        <v>53.27300736006344</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L31" t="n">
-        <v>68.17110816639106</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M31" t="n">
-        <v>71.87687526678982</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N31" t="n">
-        <v>70.16780382566108</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O31" t="n">
-        <v>64.81132382114764</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P31" t="n">
-        <v>55.45728403116462</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q31" t="n">
-        <v>38.39574888838376</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R31" t="n">
-        <v>20.61723743371469</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S31" t="n">
-        <v>7.990951104009515</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T31" t="n">
-        <v>1.959179456903742</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02501080157749461</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.0222170158976</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H32" t="n">
-        <v>10.4687800140613</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I32" t="n">
-        <v>39.40902150539227</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J32" t="n">
-        <v>86.75939145303902</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K32" t="n">
-        <v>130.0298377359845</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L32" t="n">
-        <v>161.3135117362607</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M32" t="n">
-        <v>179.4923635927296</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N32" t="n">
-        <v>182.3967376891487</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O32" t="n">
-        <v>172.2320672373169</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P32" t="n">
-        <v>146.9960846573449</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q32" t="n">
-        <v>110.387937775512</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R32" t="n">
-        <v>64.21183962487768</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S32" t="n">
-        <v>23.29377024976659</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T32" t="n">
-        <v>4.474754987091747</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U32" t="n">
-        <v>0.081777361271808</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H33" t="n">
-        <v>5.282234102975201</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I33" t="n">
-        <v>18.83085272859007</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J33" t="n">
-        <v>51.67329918809664</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K33" t="n">
-        <v>88.31789871445865</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L33" t="n">
-        <v>118.7543139272422</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M33" t="n">
         <v>138.5806830739679</v>
@@ -33512,25 +33514,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O33" t="n">
-        <v>130.1295882761561</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P33" t="n">
-        <v>104.4404670187712</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q33" t="n">
-        <v>69.81568634559048</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R33" t="n">
-        <v>33.95790461476701</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S33" t="n">
-        <v>10.15906513446865</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T33" t="n">
-        <v>2.204529128353409</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4585313622540673</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H34" t="n">
-        <v>4.07676065713162</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I34" t="n">
-        <v>13.78928860305868</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J34" t="n">
-        <v>32.41816731136255</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K34" t="n">
-        <v>53.27300736006344</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L34" t="n">
-        <v>68.17110816639106</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M34" t="n">
-        <v>71.87687526678982</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N34" t="n">
-        <v>70.16780382566108</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O34" t="n">
-        <v>64.81132382114764</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P34" t="n">
-        <v>55.45728403116462</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.39574888838376</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R34" t="n">
-        <v>20.61723743371469</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S34" t="n">
-        <v>7.990951104009515</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T34" t="n">
-        <v>1.959179456903742</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02501080157749461</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.0222170158976</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H35" t="n">
-        <v>10.4687800140613</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I35" t="n">
-        <v>39.40902150539227</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J35" t="n">
-        <v>86.75939145303902</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K35" t="n">
-        <v>130.0298377359845</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L35" t="n">
-        <v>161.3135117362607</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M35" t="n">
-        <v>179.4923635927296</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N35" t="n">
-        <v>182.3967376891487</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O35" t="n">
-        <v>172.2320672373169</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P35" t="n">
-        <v>146.9960846573449</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q35" t="n">
-        <v>110.387937775512</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R35" t="n">
-        <v>64.21183962487768</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S35" t="n">
-        <v>23.29377024976659</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T35" t="n">
-        <v>4.474754987091747</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U35" t="n">
-        <v>0.081777361271808</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H36" t="n">
-        <v>5.282234102975201</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I36" t="n">
-        <v>18.83085272859007</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J36" t="n">
-        <v>51.67329918809664</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K36" t="n">
-        <v>88.31789871445865</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L36" t="n">
-        <v>118.7543139272422</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M36" t="n">
         <v>138.5806830739679</v>
@@ -33749,25 +33751,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O36" t="n">
-        <v>130.1295882761561</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P36" t="n">
-        <v>104.4404670187712</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q36" t="n">
-        <v>69.81568634559048</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R36" t="n">
-        <v>33.95790461476701</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S36" t="n">
-        <v>10.15906513446865</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T36" t="n">
-        <v>2.204529128353409</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4585313622540673</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H37" t="n">
-        <v>4.07676065713162</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I37" t="n">
-        <v>13.78928860305868</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J37" t="n">
-        <v>32.41816731136255</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K37" t="n">
-        <v>53.27300736006344</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L37" t="n">
-        <v>68.17110816639106</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M37" t="n">
-        <v>71.87687526678982</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N37" t="n">
-        <v>70.16780382566108</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O37" t="n">
-        <v>64.81132382114764</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P37" t="n">
-        <v>55.45728403116462</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q37" t="n">
-        <v>38.39574888838376</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R37" t="n">
-        <v>20.61723743371469</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S37" t="n">
-        <v>7.990951104009515</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T37" t="n">
-        <v>1.959179456903742</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02501080157749461</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.0222170158976</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H38" t="n">
-        <v>10.4687800140613</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I38" t="n">
-        <v>39.40902150539227</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J38" t="n">
-        <v>86.75939145303902</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K38" t="n">
-        <v>130.0298377359845</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L38" t="n">
-        <v>161.3135117362607</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M38" t="n">
-        <v>179.4923635927296</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N38" t="n">
-        <v>182.3967376891487</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O38" t="n">
-        <v>172.2320672373169</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P38" t="n">
-        <v>146.9960846573449</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q38" t="n">
-        <v>110.387937775512</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R38" t="n">
-        <v>64.21183962487768</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S38" t="n">
-        <v>23.29377024976659</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T38" t="n">
-        <v>4.474754987091747</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U38" t="n">
-        <v>0.081777361271808</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H39" t="n">
-        <v>5.282234102975201</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I39" t="n">
-        <v>18.83085272859007</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J39" t="n">
-        <v>51.67329918809664</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K39" t="n">
-        <v>88.31789871445865</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L39" t="n">
-        <v>118.7543139272422</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M39" t="n">
         <v>138.5806830739679</v>
@@ -33986,25 +33988,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O39" t="n">
-        <v>130.1295882761561</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P39" t="n">
-        <v>104.4404670187712</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q39" t="n">
-        <v>69.81568634559048</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R39" t="n">
-        <v>33.95790461476701</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S39" t="n">
-        <v>10.15906513446865</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T39" t="n">
-        <v>2.204529128353409</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4585313622540673</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H40" t="n">
-        <v>4.07676065713162</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I40" t="n">
-        <v>13.78928860305868</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J40" t="n">
-        <v>32.41816731136255</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K40" t="n">
-        <v>53.27300736006344</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L40" t="n">
-        <v>68.17110816639106</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M40" t="n">
-        <v>71.87687526678982</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N40" t="n">
-        <v>70.16780382566108</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O40" t="n">
-        <v>64.81132382114764</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P40" t="n">
-        <v>55.45728403116462</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q40" t="n">
-        <v>38.39574888838376</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R40" t="n">
-        <v>20.61723743371469</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S40" t="n">
-        <v>7.990951104009515</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T40" t="n">
-        <v>1.959179456903742</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02501080157749461</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.0222170158976</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H41" t="n">
-        <v>10.4687800140613</v>
+        <v>12.83812996017889</v>
       </c>
       <c r="I41" t="n">
-        <v>39.40902150539227</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J41" t="n">
-        <v>86.75939145303902</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K41" t="n">
-        <v>130.0298377359845</v>
+        <v>159.4588818671653</v>
       </c>
       <c r="L41" t="n">
-        <v>161.3135117362607</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M41" t="n">
-        <v>179.4923635927296</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N41" t="n">
-        <v>182.3967376891487</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O41" t="n">
-        <v>172.2320672373169</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P41" t="n">
-        <v>146.9960846573449</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q41" t="n">
-        <v>110.387937775512</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R41" t="n">
-        <v>64.21183962487768</v>
+        <v>78.74460452689742</v>
       </c>
       <c r="S41" t="n">
-        <v>23.29377024976659</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T41" t="n">
-        <v>4.474754987091747</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U41" t="n">
-        <v>0.081777361271808</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.6707194044539139</v>
       </c>
       <c r="H42" t="n">
-        <v>5.282234102975201</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I42" t="n">
-        <v>18.83085272859007</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J42" t="n">
-        <v>51.67329918809664</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K42" t="n">
-        <v>88.31789871445865</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L42" t="n">
-        <v>118.7543139272422</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M42" t="n">
         <v>138.5806830739679</v>
@@ -34223,25 +34225,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O42" t="n">
-        <v>130.1295882761561</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P42" t="n">
-        <v>104.4404670187712</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q42" t="n">
-        <v>69.81568634559048</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R42" t="n">
-        <v>33.95790461476701</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S42" t="n">
-        <v>10.15906513446865</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T42" t="n">
-        <v>2.204529128353409</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4585313622540673</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H43" t="n">
-        <v>4.07676065713162</v>
+        <v>4.999434801619816</v>
       </c>
       <c r="I43" t="n">
-        <v>13.78928860305868</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J43" t="n">
-        <v>32.41816731136255</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K43" t="n">
-        <v>53.27300736006344</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L43" t="n">
-        <v>68.17110816639106</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M43" t="n">
-        <v>71.87687526678982</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N43" t="n">
-        <v>70.16780382566108</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O43" t="n">
-        <v>64.81132382114764</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P43" t="n">
-        <v>55.45728403116462</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.39574888838376</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R43" t="n">
-        <v>20.61723743371469</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S43" t="n">
-        <v>7.990951104009515</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T43" t="n">
-        <v>1.959179456903742</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02501080157749461</v>
+        <v>0.03067137915104183</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.0222170158976</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H44" t="n">
-        <v>10.4687800140613</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I44" t="n">
-        <v>39.40902150539227</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J44" t="n">
-        <v>86.75939145303902</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K44" t="n">
-        <v>130.0298377359845</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L44" t="n">
-        <v>161.3135117362607</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M44" t="n">
-        <v>179.4923635927296</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N44" t="n">
-        <v>182.3967376891487</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O44" t="n">
-        <v>172.2320672373169</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P44" t="n">
-        <v>146.9960846573449</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q44" t="n">
-        <v>110.387937775512</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R44" t="n">
-        <v>64.21183962487768</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S44" t="n">
-        <v>23.29377024976659</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T44" t="n">
-        <v>4.474754987091747</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U44" t="n">
-        <v>0.081777361271808</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H45" t="n">
-        <v>5.282234102975201</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I45" t="n">
-        <v>18.83085272859007</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J45" t="n">
-        <v>51.67329918809664</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K45" t="n">
-        <v>88.31789871445865</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L45" t="n">
-        <v>118.7543139272422</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M45" t="n">
         <v>138.5806830739679</v>
@@ -34460,25 +34462,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O45" t="n">
-        <v>130.1295882761561</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P45" t="n">
-        <v>104.4404670187712</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q45" t="n">
-        <v>69.81568634559048</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R45" t="n">
-        <v>33.95790461476701</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S45" t="n">
-        <v>10.15906513446865</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T45" t="n">
-        <v>2.204529128353409</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03598252113743326</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4585313622540673</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H46" t="n">
-        <v>4.07676065713162</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I46" t="n">
-        <v>13.78928860305868</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J46" t="n">
-        <v>32.41816731136255</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K46" t="n">
-        <v>53.27300736006344</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L46" t="n">
-        <v>68.17110816639106</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M46" t="n">
-        <v>71.87687526678982</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N46" t="n">
-        <v>70.16780382566108</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O46" t="n">
-        <v>64.81132382114764</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P46" t="n">
-        <v>55.45728403116462</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.39574888838376</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R46" t="n">
-        <v>20.61723743371469</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S46" t="n">
-        <v>7.990951104009515</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T46" t="n">
-        <v>1.959179456903742</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02501080157749461</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_13_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_13_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-57108.86626480118</v>
+        <v>-201621.6782334732</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24944788.53360418</v>
+        <v>24858177.65449749</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2459999.309915981</v>
+        <v>2498201.833046481</v>
       </c>
     </row>
     <row r="11">
@@ -23272,49 +23272,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5762653186495</v>
       </c>
       <c r="H11" t="n">
-        <v>325.3057734279745</v>
+        <v>325.0504643907895</v>
       </c>
       <c r="I11" t="n">
-        <v>156.8960271123767</v>
+        <v>155.9349333341686</v>
       </c>
       <c r="J11" t="n">
-        <v>70.12451876312399</v>
+        <v>68.00866030885531</v>
       </c>
       <c r="K11" t="n">
-        <v>55.12872290169068</v>
+        <v>51.9575995584641</v>
       </c>
       <c r="L11" t="n">
-        <v>32.04941132065568</v>
+        <v>28.1153524034757</v>
       </c>
       <c r="M11" t="n">
-        <v>4.471547871848941</v>
+        <v>0.09414931448458219</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.13321183460977</v>
+        <v>8.932874909039015</v>
       </c>
       <c r="P11" t="n">
-        <v>45.18715087494314</v>
+        <v>41.60226048719778</v>
       </c>
       <c r="Q11" t="n">
-        <v>81.37652493873003</v>
+        <v>78.68442155395667</v>
       </c>
       <c r="R11" t="n">
-        <v>131.4512948418814</v>
+        <v>129.8853183930034</v>
       </c>
       <c r="S11" t="n">
-        <v>177.2992115582687</v>
+        <v>176.7311310324684</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4776118722965</v>
+        <v>217.3684830735388</v>
       </c>
       <c r="U11" t="n">
-        <v>251.377477928131</v>
+        <v>251.3754835697299</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
@@ -23351,19 +23351,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3391523528625</v>
       </c>
       <c r="H12" t="n">
-        <v>103.9847781159594</v>
+        <v>103.8559567918696</v>
       </c>
       <c r="I12" t="n">
-        <v>73.94156907472269</v>
+        <v>73.48232865959781</v>
       </c>
       <c r="J12" t="n">
-        <v>60.29841103797475</v>
+        <v>59.03822023769386</v>
       </c>
       <c r="K12" t="n">
-        <v>26.08892793956251</v>
+        <v>23.93506114164498</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23378,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.86548610568364</v>
+        <v>49.16284495386269</v>
       </c>
       <c r="R12" t="n">
-        <v>100.3940782532438</v>
+        <v>99.56592445496253</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5032951430903</v>
+        <v>156.2555393267778</v>
       </c>
       <c r="T12" t="n">
-        <v>195.6790620280356</v>
+        <v>195.6252987233859</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6121732611367</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -23430,49 +23430,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.327280312339</v>
+        <v>167.316097805833</v>
       </c>
       <c r="H13" t="n">
-        <v>156.634637207297</v>
+        <v>156.5352145585445</v>
       </c>
       <c r="I13" t="n">
-        <v>136.8483930921292</v>
+        <v>136.5121046237514</v>
       </c>
       <c r="J13" t="n">
-        <v>84.06531662713587</v>
+        <v>83.27471341716787</v>
       </c>
       <c r="K13" t="n">
-        <v>60.45788912455299</v>
+        <v>59.15868518686609</v>
       </c>
       <c r="L13" t="n">
-        <v>47.91260360151773</v>
+        <v>46.25006986153873</v>
       </c>
       <c r="M13" t="n">
-        <v>47.308207565346</v>
+        <v>45.55529884096921</v>
       </c>
       <c r="N13" t="n">
-        <v>38.44485164535457</v>
+        <v>36.73362317249983</v>
       </c>
       <c r="O13" t="n">
-        <v>55.51535781714706</v>
+        <v>53.93476135211139</v>
       </c>
       <c r="P13" t="n">
-        <v>66.27613257700894</v>
+        <v>64.92365924469388</v>
       </c>
       <c r="Q13" t="n">
-        <v>100.6316976953354</v>
+        <v>99.6953152641903</v>
       </c>
       <c r="R13" t="n">
-        <v>148.1077074562735</v>
+        <v>147.6049013001077</v>
       </c>
       <c r="S13" t="n">
-        <v>212.5579013226647</v>
+        <v>212.3630207320116</v>
       </c>
       <c r="T13" t="n">
-        <v>225.929874624676</v>
+        <v>225.8820948241508</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0209890570129</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -23509,49 +23509,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5762653186495</v>
       </c>
       <c r="H14" t="n">
-        <v>325.3057734279745</v>
+        <v>325.0504643907895</v>
       </c>
       <c r="I14" t="n">
-        <v>156.8960271123767</v>
+        <v>155.9349333341686</v>
       </c>
       <c r="J14" t="n">
-        <v>70.12451876312399</v>
+        <v>68.00866030885531</v>
       </c>
       <c r="K14" t="n">
-        <v>55.12872290169068</v>
+        <v>51.9575995584641</v>
       </c>
       <c r="L14" t="n">
-        <v>32.04941132065568</v>
+        <v>28.1153524034757</v>
       </c>
       <c r="M14" t="n">
-        <v>4.471547871848941</v>
+        <v>0.09414931448458219</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.13321183460977</v>
+        <v>8.932874909039015</v>
       </c>
       <c r="P14" t="n">
-        <v>45.18715087494314</v>
+        <v>41.60226048719778</v>
       </c>
       <c r="Q14" t="n">
-        <v>81.37652493873003</v>
+        <v>78.68442155395667</v>
       </c>
       <c r="R14" t="n">
-        <v>131.4512948418814</v>
+        <v>129.8853183930034</v>
       </c>
       <c r="S14" t="n">
-        <v>177.2992115582687</v>
+        <v>176.7311310324684</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4776118722965</v>
+        <v>217.3684830735388</v>
       </c>
       <c r="U14" t="n">
-        <v>251.377477928131</v>
+        <v>251.3754835697299</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23588,19 +23588,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3391523528625</v>
       </c>
       <c r="H15" t="n">
-        <v>103.9847781159594</v>
+        <v>103.8559567918696</v>
       </c>
       <c r="I15" t="n">
-        <v>73.94156907472269</v>
+        <v>73.48232865959781</v>
       </c>
       <c r="J15" t="n">
-        <v>60.29841103797475</v>
+        <v>59.03822023769386</v>
       </c>
       <c r="K15" t="n">
-        <v>26.08892793956251</v>
+        <v>23.93506114164498</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23615,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.86548610568364</v>
+        <v>49.16284495386269</v>
       </c>
       <c r="R15" t="n">
-        <v>100.3940782532438</v>
+        <v>99.56592445496253</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5032951430903</v>
+        <v>156.2555393267778</v>
       </c>
       <c r="T15" t="n">
-        <v>195.6790620280356</v>
+        <v>195.6252987233859</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6121732611367</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -23667,49 +23667,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.327280312339</v>
+        <v>167.316097805833</v>
       </c>
       <c r="H16" t="n">
-        <v>156.634637207297</v>
+        <v>156.5352145585445</v>
       </c>
       <c r="I16" t="n">
-        <v>136.8483930921292</v>
+        <v>136.5121046237514</v>
       </c>
       <c r="J16" t="n">
-        <v>84.06531662713587</v>
+        <v>83.27471341716787</v>
       </c>
       <c r="K16" t="n">
-        <v>60.45788912455299</v>
+        <v>59.15868518686609</v>
       </c>
       <c r="L16" t="n">
-        <v>47.91260360151773</v>
+        <v>46.25006986153873</v>
       </c>
       <c r="M16" t="n">
-        <v>47.308207565346</v>
+        <v>45.55529884096921</v>
       </c>
       <c r="N16" t="n">
-        <v>38.44485164535457</v>
+        <v>36.73362317249983</v>
       </c>
       <c r="O16" t="n">
-        <v>55.51535781714706</v>
+        <v>53.93476135211139</v>
       </c>
       <c r="P16" t="n">
-        <v>66.27613257700894</v>
+        <v>64.92365924469388</v>
       </c>
       <c r="Q16" t="n">
-        <v>100.6316976953354</v>
+        <v>99.6953152641903</v>
       </c>
       <c r="R16" t="n">
-        <v>148.1077074562735</v>
+        <v>147.6049013001077</v>
       </c>
       <c r="S16" t="n">
-        <v>212.5579013226647</v>
+        <v>212.3630207320116</v>
       </c>
       <c r="T16" t="n">
-        <v>225.929874624676</v>
+        <v>225.8820948241508</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0209890570129</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
@@ -23746,49 +23746,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5762653186495</v>
       </c>
       <c r="H17" t="n">
-        <v>325.3057734279745</v>
+        <v>325.0504643907895</v>
       </c>
       <c r="I17" t="n">
-        <v>156.8960271123767</v>
+        <v>155.9349333341686</v>
       </c>
       <c r="J17" t="n">
-        <v>70.12451876312399</v>
+        <v>68.00866030885531</v>
       </c>
       <c r="K17" t="n">
-        <v>55.12872290169071</v>
+        <v>51.9575995584641</v>
       </c>
       <c r="L17" t="n">
-        <v>32.04941132065568</v>
+        <v>28.1153524034757</v>
       </c>
       <c r="M17" t="n">
-        <v>4.471547871848941</v>
+        <v>0.09414931448458219</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.13321183460977</v>
+        <v>8.932874909039015</v>
       </c>
       <c r="P17" t="n">
-        <v>45.18715087494314</v>
+        <v>41.60226048719778</v>
       </c>
       <c r="Q17" t="n">
-        <v>81.37652493873003</v>
+        <v>78.68442155395667</v>
       </c>
       <c r="R17" t="n">
-        <v>131.4512948418814</v>
+        <v>129.8853183930034</v>
       </c>
       <c r="S17" t="n">
-        <v>177.2992115582687</v>
+        <v>176.7311310324684</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4776118722965</v>
+        <v>217.3684830735388</v>
       </c>
       <c r="U17" t="n">
-        <v>251.377477928131</v>
+        <v>251.3754835697299</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -23825,19 +23825,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3391523528625</v>
       </c>
       <c r="H18" t="n">
-        <v>103.9847781159594</v>
+        <v>103.8559567918696</v>
       </c>
       <c r="I18" t="n">
-        <v>73.94156907472269</v>
+        <v>73.48232865959781</v>
       </c>
       <c r="J18" t="n">
-        <v>60.29841103797475</v>
+        <v>59.03822023769386</v>
       </c>
       <c r="K18" t="n">
-        <v>26.08892793956251</v>
+        <v>23.93506114164498</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23852,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.86548610568364</v>
+        <v>49.16284495386269</v>
       </c>
       <c r="R18" t="n">
-        <v>100.3940782532438</v>
+        <v>99.56592445496253</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5032951430903</v>
+        <v>156.2555393267778</v>
       </c>
       <c r="T18" t="n">
-        <v>195.6790620280356</v>
+        <v>195.6252987233859</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6121732611367</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -23904,49 +23904,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>167.327280312339</v>
+        <v>167.316097805833</v>
       </c>
       <c r="H19" t="n">
-        <v>156.634637207297</v>
+        <v>156.5352145585445</v>
       </c>
       <c r="I19" t="n">
-        <v>136.8483930921292</v>
+        <v>136.5121046237514</v>
       </c>
       <c r="J19" t="n">
-        <v>84.06531662713587</v>
+        <v>83.27471341716787</v>
       </c>
       <c r="K19" t="n">
-        <v>60.45788912455299</v>
+        <v>59.15868518686609</v>
       </c>
       <c r="L19" t="n">
-        <v>47.91260360151773</v>
+        <v>46.25006986153873</v>
       </c>
       <c r="M19" t="n">
-        <v>47.308207565346</v>
+        <v>45.55529884096921</v>
       </c>
       <c r="N19" t="n">
-        <v>38.44485164535457</v>
+        <v>36.73362317249983</v>
       </c>
       <c r="O19" t="n">
-        <v>55.51535781714706</v>
+        <v>53.93476135211139</v>
       </c>
       <c r="P19" t="n">
-        <v>66.27613257700894</v>
+        <v>64.92365924469388</v>
       </c>
       <c r="Q19" t="n">
-        <v>100.6316976953354</v>
+        <v>99.6953152641903</v>
       </c>
       <c r="R19" t="n">
-        <v>148.1077074562735</v>
+        <v>147.6049013001077</v>
       </c>
       <c r="S19" t="n">
-        <v>212.5579013226647</v>
+        <v>212.3630207320116</v>
       </c>
       <c r="T19" t="n">
-        <v>225.929874624676</v>
+        <v>225.8820948241508</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0209890570129</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23983,49 +23983,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5762653186495</v>
       </c>
       <c r="H20" t="n">
-        <v>325.3057734279745</v>
+        <v>325.0504643907895</v>
       </c>
       <c r="I20" t="n">
-        <v>156.8960271123767</v>
+        <v>155.9349333341686</v>
       </c>
       <c r="J20" t="n">
-        <v>70.12451876312399</v>
+        <v>68.00866030885531</v>
       </c>
       <c r="K20" t="n">
-        <v>55.12872290169068</v>
+        <v>51.9575995584641</v>
       </c>
       <c r="L20" t="n">
-        <v>32.04941132065568</v>
+        <v>28.1153524034757</v>
       </c>
       <c r="M20" t="n">
-        <v>4.471547871848941</v>
+        <v>0.09414931448458219</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.13321183460977</v>
+        <v>8.932874909039015</v>
       </c>
       <c r="P20" t="n">
-        <v>45.18715087494314</v>
+        <v>41.60226048719778</v>
       </c>
       <c r="Q20" t="n">
-        <v>81.37652493873003</v>
+        <v>78.68442155395667</v>
       </c>
       <c r="R20" t="n">
-        <v>131.4512948418814</v>
+        <v>129.8853183930034</v>
       </c>
       <c r="S20" t="n">
-        <v>177.2992115582687</v>
+        <v>176.7311310324684</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4776118722965</v>
+        <v>217.3684830735388</v>
       </c>
       <c r="U20" t="n">
-        <v>251.377477928131</v>
+        <v>251.3754835697299</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
@@ -24062,19 +24062,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3391523528625</v>
       </c>
       <c r="H21" t="n">
-        <v>103.9847781159594</v>
+        <v>103.8559567918696</v>
       </c>
       <c r="I21" t="n">
-        <v>73.94156907472269</v>
+        <v>73.48232865959781</v>
       </c>
       <c r="J21" t="n">
-        <v>60.29841103797475</v>
+        <v>59.03822023769386</v>
       </c>
       <c r="K21" t="n">
-        <v>26.08892793956251</v>
+        <v>23.93506114164498</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24089,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.86548610568364</v>
+        <v>49.16284495386269</v>
       </c>
       <c r="R21" t="n">
-        <v>100.3940782532438</v>
+        <v>99.56592445496253</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5032951430903</v>
+        <v>156.2555393267778</v>
       </c>
       <c r="T21" t="n">
-        <v>195.6790620280356</v>
+        <v>195.6252987233859</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6121732611367</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -24141,49 +24141,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.327280312339</v>
+        <v>167.316097805833</v>
       </c>
       <c r="H22" t="n">
-        <v>156.634637207297</v>
+        <v>156.5352145585445</v>
       </c>
       <c r="I22" t="n">
-        <v>136.8483930921292</v>
+        <v>136.5121046237514</v>
       </c>
       <c r="J22" t="n">
-        <v>84.06531662713587</v>
+        <v>83.27471341716787</v>
       </c>
       <c r="K22" t="n">
-        <v>60.45788912455299</v>
+        <v>59.15868518686609</v>
       </c>
       <c r="L22" t="n">
-        <v>47.91260360151773</v>
+        <v>46.25006986153873</v>
       </c>
       <c r="M22" t="n">
-        <v>47.308207565346</v>
+        <v>45.55529884096921</v>
       </c>
       <c r="N22" t="n">
-        <v>38.44485164535457</v>
+        <v>36.73362317249983</v>
       </c>
       <c r="O22" t="n">
-        <v>55.51535781714706</v>
+        <v>53.93476135211139</v>
       </c>
       <c r="P22" t="n">
-        <v>66.27613257700894</v>
+        <v>64.92365924469388</v>
       </c>
       <c r="Q22" t="n">
-        <v>100.6316976953354</v>
+        <v>99.6953152641903</v>
       </c>
       <c r="R22" t="n">
-        <v>148.1077074562735</v>
+        <v>147.6049013001077</v>
       </c>
       <c r="S22" t="n">
-        <v>212.5579013226647</v>
+        <v>212.3630207320116</v>
       </c>
       <c r="T22" t="n">
-        <v>225.929874624676</v>
+        <v>225.8820948241508</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0209890570129</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
@@ -24220,49 +24220,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5762653186495</v>
       </c>
       <c r="H23" t="n">
-        <v>325.3057734279745</v>
+        <v>325.0504643907895</v>
       </c>
       <c r="I23" t="n">
-        <v>156.8960271123767</v>
+        <v>155.9349333341686</v>
       </c>
       <c r="J23" t="n">
-        <v>70.12451876312399</v>
+        <v>68.00866030885531</v>
       </c>
       <c r="K23" t="n">
-        <v>55.12872290169068</v>
+        <v>51.9575995584641</v>
       </c>
       <c r="L23" t="n">
-        <v>32.04941132065568</v>
+        <v>28.11535240347573</v>
       </c>
       <c r="M23" t="n">
-        <v>4.471547871848941</v>
+        <v>0.09414931448461061</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.13321183460977</v>
+        <v>8.932874909039015</v>
       </c>
       <c r="P23" t="n">
-        <v>45.18715087494314</v>
+        <v>41.60226048719778</v>
       </c>
       <c r="Q23" t="n">
-        <v>81.37652493873003</v>
+        <v>78.6844215539567</v>
       </c>
       <c r="R23" t="n">
-        <v>131.4512948418814</v>
+        <v>129.8853183930034</v>
       </c>
       <c r="S23" t="n">
-        <v>177.2992115582687</v>
+        <v>176.7311310324684</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4776118722965</v>
+        <v>217.3684830735388</v>
       </c>
       <c r="U23" t="n">
-        <v>251.377477928131</v>
+        <v>251.3754835697299</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -24299,19 +24299,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3391523528625</v>
       </c>
       <c r="H24" t="n">
-        <v>103.9847781159594</v>
+        <v>103.8559567918696</v>
       </c>
       <c r="I24" t="n">
-        <v>73.94156907472269</v>
+        <v>73.48232865959781</v>
       </c>
       <c r="J24" t="n">
-        <v>60.29841103797475</v>
+        <v>59.03822023769386</v>
       </c>
       <c r="K24" t="n">
-        <v>26.08892793956251</v>
+        <v>23.93506114164498</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24326,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.86548610568364</v>
+        <v>49.16284495386269</v>
       </c>
       <c r="R24" t="n">
-        <v>100.3940782532438</v>
+        <v>99.56592445496253</v>
       </c>
       <c r="S24" t="n">
-        <v>156.5032951430903</v>
+        <v>156.2555393267778</v>
       </c>
       <c r="T24" t="n">
-        <v>195.6790620280356</v>
+        <v>195.6252987233859</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6121732611367</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -24378,49 +24378,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.327280312339</v>
+        <v>167.316097805833</v>
       </c>
       <c r="H25" t="n">
-        <v>156.634637207297</v>
+        <v>156.5352145585445</v>
       </c>
       <c r="I25" t="n">
-        <v>136.8483930921292</v>
+        <v>136.5121046237514</v>
       </c>
       <c r="J25" t="n">
-        <v>84.06531662713587</v>
+        <v>83.27471341716787</v>
       </c>
       <c r="K25" t="n">
-        <v>60.45788912455299</v>
+        <v>59.15868518686609</v>
       </c>
       <c r="L25" t="n">
-        <v>47.91260360151773</v>
+        <v>46.25006986153873</v>
       </c>
       <c r="M25" t="n">
-        <v>47.308207565346</v>
+        <v>45.55529884096923</v>
       </c>
       <c r="N25" t="n">
-        <v>38.44485164535457</v>
+        <v>36.73362317249983</v>
       </c>
       <c r="O25" t="n">
-        <v>55.51535781714706</v>
+        <v>53.93476135211138</v>
       </c>
       <c r="P25" t="n">
-        <v>66.27613257700894</v>
+        <v>64.92365924469387</v>
       </c>
       <c r="Q25" t="n">
-        <v>100.6316976953354</v>
+        <v>99.6953152641903</v>
       </c>
       <c r="R25" t="n">
-        <v>148.1077074562735</v>
+        <v>147.6049013001077</v>
       </c>
       <c r="S25" t="n">
-        <v>212.5579013226647</v>
+        <v>212.3630207320116</v>
       </c>
       <c r="T25" t="n">
-        <v>225.929874624676</v>
+        <v>225.8820948241508</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0209890570129</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
@@ -24457,49 +24457,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5762653186495</v>
       </c>
       <c r="H26" t="n">
-        <v>325.3057734279745</v>
+        <v>325.0504643907895</v>
       </c>
       <c r="I26" t="n">
-        <v>156.8960271123767</v>
+        <v>155.9349333341686</v>
       </c>
       <c r="J26" t="n">
-        <v>70.12451876312399</v>
+        <v>68.00866030885531</v>
       </c>
       <c r="K26" t="n">
-        <v>55.12872290169068</v>
+        <v>51.9575995584641</v>
       </c>
       <c r="L26" t="n">
-        <v>32.04941132065568</v>
+        <v>28.1153524034757</v>
       </c>
       <c r="M26" t="n">
-        <v>4.471547871848941</v>
+        <v>0.09414931448458219</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.13321183460977</v>
+        <v>8.932874909039015</v>
       </c>
       <c r="P26" t="n">
-        <v>45.18715087494314</v>
+        <v>41.60226048719778</v>
       </c>
       <c r="Q26" t="n">
-        <v>81.37652493873003</v>
+        <v>78.68442155395667</v>
       </c>
       <c r="R26" t="n">
-        <v>131.4512948418814</v>
+        <v>129.8853183930034</v>
       </c>
       <c r="S26" t="n">
-        <v>177.2992115582687</v>
+        <v>176.7311310324684</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4776118722965</v>
+        <v>217.3684830735388</v>
       </c>
       <c r="U26" t="n">
-        <v>251.377477928131</v>
+        <v>251.3754835697299</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24536,19 +24536,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3391523528625</v>
       </c>
       <c r="H27" t="n">
-        <v>103.9847781159594</v>
+        <v>103.8559567918696</v>
       </c>
       <c r="I27" t="n">
-        <v>73.94156907472269</v>
+        <v>73.48232865959781</v>
       </c>
       <c r="J27" t="n">
-        <v>60.29841103797475</v>
+        <v>59.03822023769386</v>
       </c>
       <c r="K27" t="n">
-        <v>26.08892793956251</v>
+        <v>23.93506114164498</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24563,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.86548610568364</v>
+        <v>49.16284495386269</v>
       </c>
       <c r="R27" t="n">
-        <v>100.3940782532438</v>
+        <v>99.56592445496253</v>
       </c>
       <c r="S27" t="n">
-        <v>156.5032951430903</v>
+        <v>156.2555393267778</v>
       </c>
       <c r="T27" t="n">
-        <v>195.6790620280356</v>
+        <v>195.6252987233859</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6121732611367</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -24615,49 +24615,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.327280312339</v>
+        <v>167.316097805833</v>
       </c>
       <c r="H28" t="n">
-        <v>156.634637207297</v>
+        <v>156.5352145585445</v>
       </c>
       <c r="I28" t="n">
-        <v>136.8483930921292</v>
+        <v>136.5121046237514</v>
       </c>
       <c r="J28" t="n">
-        <v>84.06531662713587</v>
+        <v>83.27471341716787</v>
       </c>
       <c r="K28" t="n">
-        <v>60.45788912455299</v>
+        <v>59.15868518686609</v>
       </c>
       <c r="L28" t="n">
-        <v>47.91260360151773</v>
+        <v>46.25006986153873</v>
       </c>
       <c r="M28" t="n">
-        <v>47.308207565346</v>
+        <v>45.55529884096921</v>
       </c>
       <c r="N28" t="n">
-        <v>38.44485164535457</v>
+        <v>36.73362317249983</v>
       </c>
       <c r="O28" t="n">
-        <v>55.51535781714706</v>
+        <v>53.93476135211139</v>
       </c>
       <c r="P28" t="n">
-        <v>66.27613257700894</v>
+        <v>64.92365924469388</v>
       </c>
       <c r="Q28" t="n">
-        <v>100.6316976953354</v>
+        <v>99.6953152641903</v>
       </c>
       <c r="R28" t="n">
-        <v>148.1077074562735</v>
+        <v>147.6049013001077</v>
       </c>
       <c r="S28" t="n">
-        <v>212.5579013226647</v>
+        <v>212.3630207320116</v>
       </c>
       <c r="T28" t="n">
-        <v>225.929874624676</v>
+        <v>225.8820948241508</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0209890570129</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24694,49 +24694,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5762653186495</v>
       </c>
       <c r="H29" t="n">
-        <v>325.3057734279745</v>
+        <v>325.0504643907895</v>
       </c>
       <c r="I29" t="n">
-        <v>156.8960271123767</v>
+        <v>155.9349333341686</v>
       </c>
       <c r="J29" t="n">
-        <v>70.12451876312399</v>
+        <v>68.00866030885531</v>
       </c>
       <c r="K29" t="n">
-        <v>55.12872290169068</v>
+        <v>51.9575995584641</v>
       </c>
       <c r="L29" t="n">
-        <v>32.04941132065568</v>
+        <v>28.1153524034757</v>
       </c>
       <c r="M29" t="n">
-        <v>4.471547871848941</v>
+        <v>0.09414931448458219</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.13321183460977</v>
+        <v>8.932874909039015</v>
       </c>
       <c r="P29" t="n">
-        <v>45.18715087494314</v>
+        <v>41.60226048719778</v>
       </c>
       <c r="Q29" t="n">
-        <v>81.37652493873003</v>
+        <v>78.68442155395667</v>
       </c>
       <c r="R29" t="n">
-        <v>131.4512948418814</v>
+        <v>129.8853183930034</v>
       </c>
       <c r="S29" t="n">
-        <v>177.2992115582687</v>
+        <v>176.7311310324684</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4776118722965</v>
+        <v>217.3684830735388</v>
       </c>
       <c r="U29" t="n">
-        <v>251.377477928131</v>
+        <v>251.3754835697299</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
@@ -24773,19 +24773,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3391523528625</v>
       </c>
       <c r="H30" t="n">
-        <v>103.9847781159594</v>
+        <v>103.8559567918696</v>
       </c>
       <c r="I30" t="n">
-        <v>73.94156907472269</v>
+        <v>73.48232865959781</v>
       </c>
       <c r="J30" t="n">
-        <v>60.29841103797475</v>
+        <v>59.03822023769386</v>
       </c>
       <c r="K30" t="n">
-        <v>26.08892793956251</v>
+        <v>23.93506114164498</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24800,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.86548610568364</v>
+        <v>49.16284495386269</v>
       </c>
       <c r="R30" t="n">
-        <v>100.3940782532438</v>
+        <v>99.56592445496253</v>
       </c>
       <c r="S30" t="n">
-        <v>156.5032951430903</v>
+        <v>156.2555393267778</v>
       </c>
       <c r="T30" t="n">
-        <v>195.6790620280356</v>
+        <v>195.6252987233859</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6121732611367</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -24852,49 +24852,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.327280312339</v>
+        <v>167.316097805833</v>
       </c>
       <c r="H31" t="n">
-        <v>156.634637207297</v>
+        <v>156.5352145585445</v>
       </c>
       <c r="I31" t="n">
-        <v>136.8483930921292</v>
+        <v>136.5121046237514</v>
       </c>
       <c r="J31" t="n">
-        <v>84.06531662713587</v>
+        <v>83.27471341716787</v>
       </c>
       <c r="K31" t="n">
-        <v>60.45788912455299</v>
+        <v>59.15868518686609</v>
       </c>
       <c r="L31" t="n">
-        <v>47.91260360151773</v>
+        <v>46.25006986153873</v>
       </c>
       <c r="M31" t="n">
-        <v>47.308207565346</v>
+        <v>45.55529884096921</v>
       </c>
       <c r="N31" t="n">
-        <v>38.44485164535457</v>
+        <v>36.73362317249983</v>
       </c>
       <c r="O31" t="n">
-        <v>55.51535781714706</v>
+        <v>53.93476135211139</v>
       </c>
       <c r="P31" t="n">
-        <v>66.27613257700894</v>
+        <v>64.92365924469388</v>
       </c>
       <c r="Q31" t="n">
-        <v>100.6316976953354</v>
+        <v>99.6953152641903</v>
       </c>
       <c r="R31" t="n">
-        <v>148.1077074562735</v>
+        <v>147.6049013001077</v>
       </c>
       <c r="S31" t="n">
-        <v>212.5579013226647</v>
+        <v>212.3630207320116</v>
       </c>
       <c r="T31" t="n">
-        <v>225.929874624676</v>
+        <v>225.8820948241508</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0209890570129</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24931,49 +24931,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5762653186495</v>
       </c>
       <c r="H32" t="n">
-        <v>325.3057734279745</v>
+        <v>325.0504643907895</v>
       </c>
       <c r="I32" t="n">
-        <v>156.8960271123767</v>
+        <v>155.9349333341686</v>
       </c>
       <c r="J32" t="n">
-        <v>70.12451876312399</v>
+        <v>68.00866030885531</v>
       </c>
       <c r="K32" t="n">
-        <v>55.12872290169068</v>
+        <v>51.9575995584641</v>
       </c>
       <c r="L32" t="n">
-        <v>32.04941132065568</v>
+        <v>28.1153524034757</v>
       </c>
       <c r="M32" t="n">
-        <v>4.471547871848941</v>
+        <v>0.09414931448458219</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.13321183460977</v>
+        <v>8.932874909039015</v>
       </c>
       <c r="P32" t="n">
-        <v>45.18715087494314</v>
+        <v>41.60226048719778</v>
       </c>
       <c r="Q32" t="n">
-        <v>81.37652493873003</v>
+        <v>78.68442155395667</v>
       </c>
       <c r="R32" t="n">
-        <v>131.4512948418814</v>
+        <v>129.8853183930034</v>
       </c>
       <c r="S32" t="n">
-        <v>177.2992115582687</v>
+        <v>176.7311310324684</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4776118722965</v>
+        <v>217.3684830735388</v>
       </c>
       <c r="U32" t="n">
-        <v>251.377477928131</v>
+        <v>251.3754835697299</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
@@ -25010,19 +25010,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3391523528625</v>
       </c>
       <c r="H33" t="n">
-        <v>103.9847781159594</v>
+        <v>103.8559567918696</v>
       </c>
       <c r="I33" t="n">
-        <v>73.94156907472269</v>
+        <v>73.48232865959781</v>
       </c>
       <c r="J33" t="n">
-        <v>60.29841103797475</v>
+        <v>59.03822023769386</v>
       </c>
       <c r="K33" t="n">
-        <v>26.08892793956251</v>
+        <v>23.93506114164498</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25037,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.86548610568364</v>
+        <v>49.16284495386269</v>
       </c>
       <c r="R33" t="n">
-        <v>100.3940782532438</v>
+        <v>99.56592445496253</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5032951430903</v>
+        <v>156.2555393267778</v>
       </c>
       <c r="T33" t="n">
-        <v>195.6790620280356</v>
+        <v>195.6252987233859</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6121732611367</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -25089,49 +25089,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.327280312339</v>
+        <v>167.316097805833</v>
       </c>
       <c r="H34" t="n">
-        <v>156.634637207297</v>
+        <v>156.5352145585445</v>
       </c>
       <c r="I34" t="n">
-        <v>136.8483930921292</v>
+        <v>136.5121046237514</v>
       </c>
       <c r="J34" t="n">
-        <v>84.06531662713587</v>
+        <v>83.27471341716787</v>
       </c>
       <c r="K34" t="n">
-        <v>60.45788912455299</v>
+        <v>59.15868518686609</v>
       </c>
       <c r="L34" t="n">
-        <v>47.91260360151773</v>
+        <v>46.25006986153873</v>
       </c>
       <c r="M34" t="n">
-        <v>47.308207565346</v>
+        <v>45.55529884096921</v>
       </c>
       <c r="N34" t="n">
-        <v>38.44485164535457</v>
+        <v>36.73362317249983</v>
       </c>
       <c r="O34" t="n">
-        <v>55.51535781714706</v>
+        <v>53.93476135211139</v>
       </c>
       <c r="P34" t="n">
-        <v>66.27613257700894</v>
+        <v>64.92365924469388</v>
       </c>
       <c r="Q34" t="n">
-        <v>100.6316976953354</v>
+        <v>99.6953152641903</v>
       </c>
       <c r="R34" t="n">
-        <v>148.1077074562735</v>
+        <v>147.6049013001077</v>
       </c>
       <c r="S34" t="n">
-        <v>212.5579013226647</v>
+        <v>212.3630207320116</v>
       </c>
       <c r="T34" t="n">
-        <v>225.929874624676</v>
+        <v>225.8820948241508</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0209890570129</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
@@ -25168,49 +25168,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5762653186495</v>
       </c>
       <c r="H35" t="n">
-        <v>325.3057734279745</v>
+        <v>325.0504643907895</v>
       </c>
       <c r="I35" t="n">
-        <v>156.8960271123767</v>
+        <v>155.9349333341686</v>
       </c>
       <c r="J35" t="n">
-        <v>70.12451876312399</v>
+        <v>68.00866030885531</v>
       </c>
       <c r="K35" t="n">
-        <v>55.12872290169068</v>
+        <v>51.9575995584641</v>
       </c>
       <c r="L35" t="n">
-        <v>32.04941132065568</v>
+        <v>28.1153524034757</v>
       </c>
       <c r="M35" t="n">
-        <v>4.471547871848941</v>
+        <v>0.09414931448458219</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.13321183460977</v>
+        <v>8.932874909039015</v>
       </c>
       <c r="P35" t="n">
-        <v>45.18715087494314</v>
+        <v>41.60226048719778</v>
       </c>
       <c r="Q35" t="n">
-        <v>81.37652493873003</v>
+        <v>78.68442155395667</v>
       </c>
       <c r="R35" t="n">
-        <v>131.4512948418814</v>
+        <v>129.8853183930034</v>
       </c>
       <c r="S35" t="n">
-        <v>177.2992115582687</v>
+        <v>176.7311310324684</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4776118722965</v>
+        <v>217.3684830735388</v>
       </c>
       <c r="U35" t="n">
-        <v>251.377477928131</v>
+        <v>251.3754835697299</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
@@ -25247,19 +25247,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3391523528625</v>
       </c>
       <c r="H36" t="n">
-        <v>103.9847781159594</v>
+        <v>103.8559567918696</v>
       </c>
       <c r="I36" t="n">
-        <v>73.94156907472269</v>
+        <v>73.48232865959781</v>
       </c>
       <c r="J36" t="n">
-        <v>60.29841103797475</v>
+        <v>59.03822023769386</v>
       </c>
       <c r="K36" t="n">
-        <v>26.08892793956251</v>
+        <v>23.93506114164498</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25274,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.86548610568364</v>
+        <v>49.16284495386269</v>
       </c>
       <c r="R36" t="n">
-        <v>100.3940782532438</v>
+        <v>99.56592445496253</v>
       </c>
       <c r="S36" t="n">
-        <v>156.5032951430903</v>
+        <v>156.2555393267778</v>
       </c>
       <c r="T36" t="n">
-        <v>195.6790620280356</v>
+        <v>195.6252987233859</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6121732611367</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -25326,49 +25326,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.327280312339</v>
+        <v>167.316097805833</v>
       </c>
       <c r="H37" t="n">
-        <v>156.634637207297</v>
+        <v>156.5352145585445</v>
       </c>
       <c r="I37" t="n">
-        <v>136.8483930921292</v>
+        <v>136.5121046237514</v>
       </c>
       <c r="J37" t="n">
-        <v>84.06531662713587</v>
+        <v>83.27471341716787</v>
       </c>
       <c r="K37" t="n">
-        <v>60.45788912455299</v>
+        <v>59.15868518686609</v>
       </c>
       <c r="L37" t="n">
-        <v>47.91260360151773</v>
+        <v>46.25006986153873</v>
       </c>
       <c r="M37" t="n">
-        <v>47.308207565346</v>
+        <v>45.55529884096921</v>
       </c>
       <c r="N37" t="n">
-        <v>38.44485164535457</v>
+        <v>36.73362317249983</v>
       </c>
       <c r="O37" t="n">
-        <v>55.51535781714706</v>
+        <v>53.93476135211139</v>
       </c>
       <c r="P37" t="n">
-        <v>66.27613257700894</v>
+        <v>64.92365924469388</v>
       </c>
       <c r="Q37" t="n">
-        <v>100.6316976953354</v>
+        <v>99.6953152641903</v>
       </c>
       <c r="R37" t="n">
-        <v>148.1077074562735</v>
+        <v>147.6049013001077</v>
       </c>
       <c r="S37" t="n">
-        <v>212.5579013226647</v>
+        <v>212.3630207320116</v>
       </c>
       <c r="T37" t="n">
-        <v>225.929874624676</v>
+        <v>225.8820948241508</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0209890570129</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25405,49 +25405,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5762653186495</v>
       </c>
       <c r="H38" t="n">
-        <v>325.3057734279745</v>
+        <v>325.0504643907895</v>
       </c>
       <c r="I38" t="n">
-        <v>156.8960271123767</v>
+        <v>155.9349333341686</v>
       </c>
       <c r="J38" t="n">
-        <v>70.12451876312399</v>
+        <v>68.00866030885531</v>
       </c>
       <c r="K38" t="n">
-        <v>55.12872290169068</v>
+        <v>51.9575995584641</v>
       </c>
       <c r="L38" t="n">
-        <v>32.04941132065568</v>
+        <v>28.1153524034757</v>
       </c>
       <c r="M38" t="n">
-        <v>4.471547871848941</v>
+        <v>0.09414931448458219</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.13321183460977</v>
+        <v>8.932874909039015</v>
       </c>
       <c r="P38" t="n">
-        <v>45.18715087494314</v>
+        <v>41.60226048719778</v>
       </c>
       <c r="Q38" t="n">
-        <v>81.37652493873003</v>
+        <v>78.68442155395667</v>
       </c>
       <c r="R38" t="n">
-        <v>131.4512948418814</v>
+        <v>129.8853183930034</v>
       </c>
       <c r="S38" t="n">
-        <v>177.2992115582687</v>
+        <v>176.7311310324684</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4776118722965</v>
+        <v>217.3684830735388</v>
       </c>
       <c r="U38" t="n">
-        <v>251.377477928131</v>
+        <v>251.3754835697299</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
@@ -25484,19 +25484,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3391523528625</v>
       </c>
       <c r="H39" t="n">
-        <v>103.9847781159594</v>
+        <v>103.8559567918696</v>
       </c>
       <c r="I39" t="n">
-        <v>73.94156907472269</v>
+        <v>73.48232865959781</v>
       </c>
       <c r="J39" t="n">
-        <v>60.29841103797475</v>
+        <v>59.03822023769386</v>
       </c>
       <c r="K39" t="n">
-        <v>26.08892793956251</v>
+        <v>23.93506114164498</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25511,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.86548610568364</v>
+        <v>49.16284495386269</v>
       </c>
       <c r="R39" t="n">
-        <v>100.3940782532438</v>
+        <v>99.56592445496253</v>
       </c>
       <c r="S39" t="n">
-        <v>156.5032951430903</v>
+        <v>156.2555393267778</v>
       </c>
       <c r="T39" t="n">
-        <v>195.6790620280356</v>
+        <v>195.6252987233859</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6121732611367</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -25563,49 +25563,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.327280312339</v>
+        <v>167.316097805833</v>
       </c>
       <c r="H40" t="n">
-        <v>156.634637207297</v>
+        <v>156.5352145585445</v>
       </c>
       <c r="I40" t="n">
-        <v>136.8483930921292</v>
+        <v>136.5121046237514</v>
       </c>
       <c r="J40" t="n">
-        <v>84.06531662713587</v>
+        <v>83.27471341716787</v>
       </c>
       <c r="K40" t="n">
-        <v>60.45788912455299</v>
+        <v>59.15868518686609</v>
       </c>
       <c r="L40" t="n">
-        <v>47.91260360151773</v>
+        <v>46.25006986153873</v>
       </c>
       <c r="M40" t="n">
-        <v>47.308207565346</v>
+        <v>45.55529884096921</v>
       </c>
       <c r="N40" t="n">
-        <v>38.44485164535457</v>
+        <v>36.73362317249983</v>
       </c>
       <c r="O40" t="n">
-        <v>55.51535781714706</v>
+        <v>53.93476135211139</v>
       </c>
       <c r="P40" t="n">
-        <v>66.27613257700894</v>
+        <v>64.92365924469388</v>
       </c>
       <c r="Q40" t="n">
-        <v>100.6316976953354</v>
+        <v>99.6953152641903</v>
       </c>
       <c r="R40" t="n">
-        <v>148.1077074562735</v>
+        <v>147.6049013001077</v>
       </c>
       <c r="S40" t="n">
-        <v>212.5579013226647</v>
+        <v>212.3630207320116</v>
       </c>
       <c r="T40" t="n">
-        <v>225.929874624676</v>
+        <v>225.8820948241508</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0209890570129</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25642,49 +25642,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5762653186495</v>
       </c>
       <c r="H41" t="n">
-        <v>325.3057734279745</v>
+        <v>325.0504643907895</v>
       </c>
       <c r="I41" t="n">
-        <v>156.8960271123767</v>
+        <v>155.9349333341686</v>
       </c>
       <c r="J41" t="n">
-        <v>70.12451876312399</v>
+        <v>68.00866030885531</v>
       </c>
       <c r="K41" t="n">
-        <v>55.12872290169071</v>
+        <v>51.9575995584641</v>
       </c>
       <c r="L41" t="n">
-        <v>32.04941132065568</v>
+        <v>28.1153524034757</v>
       </c>
       <c r="M41" t="n">
-        <v>4.471547871848941</v>
+        <v>0.09414931448458219</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.13321183460977</v>
+        <v>8.932874909039015</v>
       </c>
       <c r="P41" t="n">
-        <v>45.18715087494314</v>
+        <v>41.60226048719778</v>
       </c>
       <c r="Q41" t="n">
-        <v>81.37652493873003</v>
+        <v>78.68442155395667</v>
       </c>
       <c r="R41" t="n">
-        <v>131.4512948418814</v>
+        <v>129.8853183930034</v>
       </c>
       <c r="S41" t="n">
-        <v>177.2992115582687</v>
+        <v>176.7311310324684</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4776118722965</v>
+        <v>217.3684830735388</v>
       </c>
       <c r="U41" t="n">
-        <v>251.377477928131</v>
+        <v>251.3754835697299</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
@@ -25721,19 +25721,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3391523528625</v>
       </c>
       <c r="H42" t="n">
-        <v>103.9847781159594</v>
+        <v>103.8559567918696</v>
       </c>
       <c r="I42" t="n">
-        <v>73.94156907472269</v>
+        <v>73.48232865959781</v>
       </c>
       <c r="J42" t="n">
-        <v>60.29841103797475</v>
+        <v>59.03822023769386</v>
       </c>
       <c r="K42" t="n">
-        <v>26.08892793956251</v>
+        <v>23.93506114164498</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25748,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.86548610568364</v>
+        <v>49.16284495386269</v>
       </c>
       <c r="R42" t="n">
-        <v>100.3940782532438</v>
+        <v>99.56592445496253</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5032951430903</v>
+        <v>156.2555393267778</v>
       </c>
       <c r="T42" t="n">
-        <v>195.6790620280356</v>
+        <v>195.6252987233859</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6121732611367</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -25800,49 +25800,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.327280312339</v>
+        <v>167.316097805833</v>
       </c>
       <c r="H43" t="n">
-        <v>156.634637207297</v>
+        <v>156.5352145585445</v>
       </c>
       <c r="I43" t="n">
-        <v>136.8483930921292</v>
+        <v>136.5121046237514</v>
       </c>
       <c r="J43" t="n">
-        <v>84.06531662713587</v>
+        <v>83.27471341716787</v>
       </c>
       <c r="K43" t="n">
-        <v>60.45788912455299</v>
+        <v>59.15868518686609</v>
       </c>
       <c r="L43" t="n">
-        <v>47.91260360151773</v>
+        <v>46.25006986153873</v>
       </c>
       <c r="M43" t="n">
-        <v>47.308207565346</v>
+        <v>45.55529884096921</v>
       </c>
       <c r="N43" t="n">
-        <v>38.44485164535457</v>
+        <v>36.73362317249983</v>
       </c>
       <c r="O43" t="n">
-        <v>55.51535781714706</v>
+        <v>53.93476135211139</v>
       </c>
       <c r="P43" t="n">
-        <v>66.27613257700894</v>
+        <v>64.92365924469388</v>
       </c>
       <c r="Q43" t="n">
-        <v>100.6316976953354</v>
+        <v>99.6953152641903</v>
       </c>
       <c r="R43" t="n">
-        <v>148.1077074562735</v>
+        <v>147.6049013001077</v>
       </c>
       <c r="S43" t="n">
-        <v>212.5579013226647</v>
+        <v>212.3630207320116</v>
       </c>
       <c r="T43" t="n">
-        <v>225.929874624676</v>
+        <v>225.8820948241508</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0209890570129</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25879,49 +25879,49 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>413.6011947986627</v>
+        <v>413.5762653186495</v>
       </c>
       <c r="H44" t="n">
-        <v>325.3057734279745</v>
+        <v>325.0504643907895</v>
       </c>
       <c r="I44" t="n">
-        <v>156.8960271123767</v>
+        <v>155.9349333341686</v>
       </c>
       <c r="J44" t="n">
-        <v>70.12451876312399</v>
+        <v>68.00866030885531</v>
       </c>
       <c r="K44" t="n">
-        <v>55.12872290169068</v>
+        <v>51.9575995584641</v>
       </c>
       <c r="L44" t="n">
-        <v>32.04941132065568</v>
+        <v>28.1153524034757</v>
       </c>
       <c r="M44" t="n">
-        <v>4.471547871848941</v>
+        <v>0.09414931448458219</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.13321183460977</v>
+        <v>8.932874909039015</v>
       </c>
       <c r="P44" t="n">
-        <v>45.18715087494314</v>
+        <v>41.60226048719778</v>
       </c>
       <c r="Q44" t="n">
-        <v>81.37652493873003</v>
+        <v>78.68442155395667</v>
       </c>
       <c r="R44" t="n">
-        <v>131.4512948418814</v>
+        <v>129.8853183930034</v>
       </c>
       <c r="S44" t="n">
-        <v>177.2992115582687</v>
+        <v>176.7311310324684</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4776118722965</v>
+        <v>217.3684830735388</v>
       </c>
       <c r="U44" t="n">
-        <v>251.377477928131</v>
+        <v>251.3754835697299</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25958,19 +25958,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3524908005884</v>
+        <v>135.3391523528625</v>
       </c>
       <c r="H45" t="n">
-        <v>103.9847781159594</v>
+        <v>103.8559567918696</v>
       </c>
       <c r="I45" t="n">
-        <v>73.94156907472269</v>
+        <v>73.48232865959781</v>
       </c>
       <c r="J45" t="n">
-        <v>60.29841103797475</v>
+        <v>59.03822023769386</v>
       </c>
       <c r="K45" t="n">
-        <v>26.08892793956251</v>
+        <v>23.93506114164498</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25985,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.547058496013619</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.86548610568364</v>
+        <v>49.16284495386269</v>
       </c>
       <c r="R45" t="n">
-        <v>100.3940782532438</v>
+        <v>99.56592445496253</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5032951430903</v>
+        <v>156.2555393267778</v>
       </c>
       <c r="T45" t="n">
-        <v>195.6790620280356</v>
+        <v>195.6252987233859</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6121732611367</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -26037,49 +26037,49 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.327280312339</v>
+        <v>167.316097805833</v>
       </c>
       <c r="H46" t="n">
-        <v>156.634637207297</v>
+        <v>156.5352145585445</v>
       </c>
       <c r="I46" t="n">
-        <v>136.8483930921292</v>
+        <v>136.5121046237514</v>
       </c>
       <c r="J46" t="n">
-        <v>84.06531662713587</v>
+        <v>83.27471341716787</v>
       </c>
       <c r="K46" t="n">
-        <v>60.45788912455299</v>
+        <v>59.15868518686609</v>
       </c>
       <c r="L46" t="n">
-        <v>47.91260360151773</v>
+        <v>46.25006986153873</v>
       </c>
       <c r="M46" t="n">
-        <v>47.308207565346</v>
+        <v>45.55529884096921</v>
       </c>
       <c r="N46" t="n">
-        <v>38.44485164535457</v>
+        <v>36.73362317249983</v>
       </c>
       <c r="O46" t="n">
-        <v>55.51535781714706</v>
+        <v>53.93476135211139</v>
       </c>
       <c r="P46" t="n">
-        <v>66.27613257700894</v>
+        <v>64.92365924469388</v>
       </c>
       <c r="Q46" t="n">
-        <v>100.6316976953354</v>
+        <v>99.6953152641903</v>
       </c>
       <c r="R46" t="n">
-        <v>148.1077074562735</v>
+        <v>147.6049013001077</v>
       </c>
       <c r="S46" t="n">
-        <v>212.5579013226647</v>
+        <v>212.3630207320116</v>
       </c>
       <c r="T46" t="n">
-        <v>225.929874624676</v>
+        <v>225.8820948241508</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0209890570129</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>283507.122214012</v>
+        <v>287909.8419019343</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>283507.122214012</v>
+        <v>287909.8419019343</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>283507.122214012</v>
+        <v>287909.8419019343</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>283507.122214012</v>
+        <v>287909.8419019343</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>283507.122214012</v>
+        <v>287909.8419019343</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>283507.122214012</v>
+        <v>287909.8419019343</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>283507.122214012</v>
+        <v>287909.8419019343</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>283507.122214012</v>
+        <v>287909.8419019343</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>283507.122214012</v>
+        <v>287909.8419019343</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>283507.122214012</v>
+        <v>287909.8419019343</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>283507.122214012</v>
+        <v>287909.8419019343</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>283507.122214012</v>
+        <v>287909.8419019343</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41828.9196709198</v>
+        <v>42478.50126421983</v>
       </c>
       <c r="F2" t="n">
-        <v>41828.9196709198</v>
+        <v>42478.50126421983</v>
       </c>
       <c r="G2" t="n">
-        <v>41828.91967091981</v>
+        <v>42478.50126421983</v>
       </c>
       <c r="H2" t="n">
-        <v>41828.91967091981</v>
+        <v>42478.50126421984</v>
       </c>
       <c r="I2" t="n">
-        <v>41828.9196709198</v>
+        <v>42478.50126421983</v>
       </c>
       <c r="J2" t="n">
-        <v>41828.9196709198</v>
+        <v>42478.50126421983</v>
       </c>
       <c r="K2" t="n">
-        <v>41828.91967091981</v>
+        <v>42478.50126421983</v>
       </c>
       <c r="L2" t="n">
-        <v>41828.9196709198</v>
+        <v>42478.50126421983</v>
       </c>
       <c r="M2" t="n">
-        <v>41828.9196709198</v>
+        <v>42478.50126421983</v>
       </c>
       <c r="N2" t="n">
-        <v>41828.9196709198</v>
+        <v>42478.50126421983</v>
       </c>
       <c r="O2" t="n">
-        <v>41828.91967091981</v>
+        <v>42478.50126421982</v>
       </c>
       <c r="P2" t="n">
-        <v>41828.91967091981</v>
+        <v>42478.50126421983</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>250521.6932448584</v>
+        <v>255503.7624788269</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>6797.799999175896</v>
+        <v>6932.98633691737</v>
       </c>
       <c r="F5" t="n">
-        <v>6797.799999175896</v>
+        <v>6932.98633691737</v>
       </c>
       <c r="G5" t="n">
-        <v>6797.799999175896</v>
+        <v>6932.98633691737</v>
       </c>
       <c r="H5" t="n">
-        <v>6797.799999175896</v>
+        <v>6932.98633691737</v>
       </c>
       <c r="I5" t="n">
-        <v>6797.799999175896</v>
+        <v>6932.98633691737</v>
       </c>
       <c r="J5" t="n">
-        <v>6797.799999175896</v>
+        <v>6932.98633691737</v>
       </c>
       <c r="K5" t="n">
-        <v>6797.799999175896</v>
+        <v>6932.98633691737</v>
       </c>
       <c r="L5" t="n">
-        <v>6797.799999175896</v>
+        <v>6932.98633691737</v>
       </c>
       <c r="M5" t="n">
-        <v>6797.799999175896</v>
+        <v>6932.98633691737</v>
       </c>
       <c r="N5" t="n">
-        <v>6797.799999175896</v>
+        <v>6932.98633691737</v>
       </c>
       <c r="O5" t="n">
-        <v>6797.799999175896</v>
+        <v>6932.98633691737</v>
       </c>
       <c r="P5" t="n">
-        <v>6797.799999175896</v>
+        <v>6932.98633691737</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-53975.58521537341</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-53975.58521537341</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-53975.58521537341</v>
       </c>
       <c r="E6" t="n">
-        <v>-215490.5735731144</v>
+        <v>-235586.3992930956</v>
       </c>
       <c r="F6" t="n">
-        <v>35031.1196717439</v>
+        <v>19917.36318573125</v>
       </c>
       <c r="G6" t="n">
-        <v>35031.11967174391</v>
+        <v>19917.36318573125</v>
       </c>
       <c r="H6" t="n">
-        <v>35031.11967174391</v>
+        <v>19917.36318573126</v>
       </c>
       <c r="I6" t="n">
-        <v>35031.1196717439</v>
+        <v>19917.36318573126</v>
       </c>
       <c r="J6" t="n">
-        <v>35031.1196717439</v>
+        <v>19917.36318573125</v>
       </c>
       <c r="K6" t="n">
-        <v>35031.11967174391</v>
+        <v>19917.36318573125</v>
       </c>
       <c r="L6" t="n">
-        <v>35031.1196717439</v>
+        <v>19917.36318573125</v>
       </c>
       <c r="M6" t="n">
-        <v>35031.1196717439</v>
+        <v>19917.36318573125</v>
       </c>
       <c r="N6" t="n">
-        <v>35031.1196717439</v>
+        <v>19917.36318573125</v>
       </c>
       <c r="O6" t="n">
-        <v>35031.11967174392</v>
+        <v>19917.36318573124</v>
       </c>
       <c r="P6" t="n">
-        <v>35031.11967174391</v>
+        <v>19917.36318573125</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.0268961888702</v>
       </c>
       <c r="F3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.0268961888702</v>
       </c>
       <c r="G3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.0268961888702</v>
       </c>
       <c r="H3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.0268961888702</v>
       </c>
       <c r="I3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.0268961888702</v>
       </c>
       <c r="J3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.0268961888702</v>
       </c>
       <c r="K3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.0268961888702</v>
       </c>
       <c r="L3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.0268961888702</v>
       </c>
       <c r="M3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.0268961888702</v>
       </c>
       <c r="N3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.0268961888702</v>
       </c>
       <c r="O3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.0268961888702</v>
       </c>
       <c r="P3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.0268961888702</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>311.8256880355916</v>
+        <v>318.0268961888702</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.253570605168206</v>
+        <v>1.278500085181387</v>
       </c>
       <c r="H11" t="n">
-        <v>12.8381299601789</v>
+        <v>13.09343899736388</v>
       </c>
       <c r="I11" t="n">
-        <v>48.32828075574732</v>
+        <v>49.28937453395546</v>
       </c>
       <c r="J11" t="n">
-        <v>106.3952381503951</v>
+        <v>108.5110966046638</v>
       </c>
       <c r="K11" t="n">
-        <v>159.4588818671654</v>
+        <v>162.6300052103919</v>
       </c>
       <c r="L11" t="n">
-        <v>197.8228432750819</v>
+        <v>201.7569021922619</v>
       </c>
       <c r="M11" t="n">
-        <v>220.116029524742</v>
+        <v>224.4934280821063</v>
       </c>
       <c r="N11" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O11" t="n">
-        <v>211.2125443015348</v>
+        <v>215.4128812271055</v>
       </c>
       <c r="P11" t="n">
-        <v>180.2650199864447</v>
+        <v>183.84991037419</v>
       </c>
       <c r="Q11" t="n">
-        <v>135.3715226888582</v>
+        <v>138.0636260736316</v>
       </c>
       <c r="R11" t="n">
-        <v>78.7446045268974</v>
+        <v>80.31058097577535</v>
       </c>
       <c r="S11" t="n">
-        <v>28.56574016527053</v>
+        <v>29.13382069107088</v>
       </c>
       <c r="T11" t="n">
-        <v>5.487505324123826</v>
+        <v>5.596634122881524</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1022800068145109</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6840578521798339</v>
       </c>
       <c r="H12" t="n">
-        <v>6.477737406173327</v>
+        <v>6.606558730263135</v>
       </c>
       <c r="I12" t="n">
-        <v>23.0927514252773</v>
+        <v>23.55199184040218</v>
       </c>
       <c r="J12" t="n">
-        <v>63.36827496202527</v>
+        <v>64.62846576230616</v>
       </c>
       <c r="K12" t="n">
-        <v>108.3064750604375</v>
+        <v>110.460341858355</v>
       </c>
       <c r="L12" t="n">
         <v>135.0905202853774</v>
@@ -31858,22 +31858,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P12" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.61674362818734</v>
+        <v>87.31938478000829</v>
       </c>
       <c r="R12" t="n">
-        <v>41.64343811162109</v>
+        <v>42.47159190990234</v>
       </c>
       <c r="S12" t="n">
-        <v>12.45831876255405</v>
+        <v>12.70607457886664</v>
       </c>
       <c r="T12" t="n">
-        <v>2.703469880233099</v>
+        <v>2.757233184882751</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04500380606446278</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5734911242750117</v>
       </c>
       <c r="H13" t="n">
-        <v>4.999434801619815</v>
+        <v>5.098857450372381</v>
       </c>
       <c r="I13" t="n">
-        <v>16.91015370527438</v>
+        <v>17.24644217365218</v>
       </c>
       <c r="J13" t="n">
-        <v>39.75521927627533</v>
+        <v>40.54582248624333</v>
       </c>
       <c r="K13" t="n">
-        <v>65.33003759171899</v>
+        <v>66.62924152940589</v>
       </c>
       <c r="L13" t="n">
-        <v>83.59995577268958</v>
+        <v>85.26248951266858</v>
       </c>
       <c r="M13" t="n">
-        <v>88.14443178356892</v>
+        <v>89.8973405079457</v>
       </c>
       <c r="N13" t="n">
-        <v>86.04855420824779</v>
+        <v>87.75978268110254</v>
       </c>
       <c r="O13" t="n">
-        <v>79.47976717339965</v>
+        <v>81.06036363843532</v>
       </c>
       <c r="P13" t="n">
-        <v>68.00867137090997</v>
+        <v>69.36114470322502</v>
       </c>
       <c r="Q13" t="n">
-        <v>47.08567889337432</v>
+        <v>48.0220613245194</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28344021350878</v>
+        <v>25.78624636967461</v>
       </c>
       <c r="S13" t="n">
-        <v>9.799505638757848</v>
+        <v>9.994386229410884</v>
       </c>
       <c r="T13" t="n">
-        <v>2.402591366831606</v>
+        <v>2.450371167356868</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.03128133405136431</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.253570605168206</v>
+        <v>1.278500085181387</v>
       </c>
       <c r="H14" t="n">
-        <v>12.8381299601789</v>
+        <v>13.09343899736388</v>
       </c>
       <c r="I14" t="n">
-        <v>48.32828075574732</v>
+        <v>49.28937453395546</v>
       </c>
       <c r="J14" t="n">
-        <v>106.3952381503951</v>
+        <v>108.5110966046638</v>
       </c>
       <c r="K14" t="n">
-        <v>159.4588818671654</v>
+        <v>162.6300052103919</v>
       </c>
       <c r="L14" t="n">
-        <v>197.8228432750819</v>
+        <v>201.7569021922619</v>
       </c>
       <c r="M14" t="n">
-        <v>220.116029524742</v>
+        <v>224.4934280821063</v>
       </c>
       <c r="N14" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O14" t="n">
-        <v>211.2125443015348</v>
+        <v>215.4128812271055</v>
       </c>
       <c r="P14" t="n">
-        <v>180.2650199864447</v>
+        <v>183.84991037419</v>
       </c>
       <c r="Q14" t="n">
-        <v>135.3715226888582</v>
+        <v>138.0636260736316</v>
       </c>
       <c r="R14" t="n">
-        <v>78.7446045268974</v>
+        <v>80.31058097577535</v>
       </c>
       <c r="S14" t="n">
-        <v>28.56574016527053</v>
+        <v>29.13382069107088</v>
       </c>
       <c r="T14" t="n">
-        <v>5.487505324123826</v>
+        <v>5.596634122881524</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1022800068145109</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6840578521798339</v>
       </c>
       <c r="H15" t="n">
-        <v>6.477737406173327</v>
+        <v>6.606558730263135</v>
       </c>
       <c r="I15" t="n">
-        <v>23.0927514252773</v>
+        <v>23.55199184040218</v>
       </c>
       <c r="J15" t="n">
-        <v>63.36827496202527</v>
+        <v>64.62846576230616</v>
       </c>
       <c r="K15" t="n">
-        <v>108.3064750604375</v>
+        <v>110.460341858355</v>
       </c>
       <c r="L15" t="n">
         <v>135.0905202853774</v>
@@ -32095,22 +32095,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P15" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q15" t="n">
-        <v>85.61674362818734</v>
+        <v>87.31938478000829</v>
       </c>
       <c r="R15" t="n">
-        <v>41.64343811162109</v>
+        <v>42.47159190990234</v>
       </c>
       <c r="S15" t="n">
-        <v>12.45831876255405</v>
+        <v>12.70607457886664</v>
       </c>
       <c r="T15" t="n">
-        <v>2.703469880233099</v>
+        <v>2.757233184882751</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04500380606446278</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5734911242750117</v>
       </c>
       <c r="H16" t="n">
-        <v>4.999434801619815</v>
+        <v>5.098857450372381</v>
       </c>
       <c r="I16" t="n">
-        <v>16.91015370527438</v>
+        <v>17.24644217365218</v>
       </c>
       <c r="J16" t="n">
-        <v>39.75521927627533</v>
+        <v>40.54582248624333</v>
       </c>
       <c r="K16" t="n">
-        <v>65.33003759171899</v>
+        <v>66.62924152940589</v>
       </c>
       <c r="L16" t="n">
-        <v>83.59995577268958</v>
+        <v>85.26248951266858</v>
       </c>
       <c r="M16" t="n">
-        <v>88.14443178356892</v>
+        <v>89.8973405079457</v>
       </c>
       <c r="N16" t="n">
-        <v>86.04855420824779</v>
+        <v>87.75978268110254</v>
       </c>
       <c r="O16" t="n">
-        <v>79.47976717339965</v>
+        <v>81.06036363843532</v>
       </c>
       <c r="P16" t="n">
-        <v>68.00867137090997</v>
+        <v>69.36114470322502</v>
       </c>
       <c r="Q16" t="n">
-        <v>47.08567889337432</v>
+        <v>48.0220613245194</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28344021350878</v>
+        <v>25.78624636967461</v>
       </c>
       <c r="S16" t="n">
-        <v>9.799505638757848</v>
+        <v>9.994386229410884</v>
       </c>
       <c r="T16" t="n">
-        <v>2.402591366831606</v>
+        <v>2.450371167356868</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.03128133405136431</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.253570605168206</v>
+        <v>1.278500085181387</v>
       </c>
       <c r="H17" t="n">
-        <v>12.83812996017889</v>
+        <v>13.09343899736388</v>
       </c>
       <c r="I17" t="n">
-        <v>48.32828075574732</v>
+        <v>49.28937453395546</v>
       </c>
       <c r="J17" t="n">
-        <v>106.3952381503951</v>
+        <v>108.5110966046638</v>
       </c>
       <c r="K17" t="n">
-        <v>159.4588818671653</v>
+        <v>162.6300052103919</v>
       </c>
       <c r="L17" t="n">
-        <v>197.8228432750819</v>
+        <v>201.7569021922619</v>
       </c>
       <c r="M17" t="n">
-        <v>220.116029524742</v>
+        <v>224.4934280821063</v>
       </c>
       <c r="N17" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O17" t="n">
-        <v>211.2125443015348</v>
+        <v>215.4128812271055</v>
       </c>
       <c r="P17" t="n">
-        <v>180.2650199864447</v>
+        <v>183.84991037419</v>
       </c>
       <c r="Q17" t="n">
-        <v>135.3715226888582</v>
+        <v>138.0636260736316</v>
       </c>
       <c r="R17" t="n">
-        <v>78.74460452689742</v>
+        <v>80.31058097577535</v>
       </c>
       <c r="S17" t="n">
-        <v>28.56574016527053</v>
+        <v>29.13382069107088</v>
       </c>
       <c r="T17" t="n">
-        <v>5.487505324123826</v>
+        <v>5.596634122881524</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1022800068145109</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6707194044539139</v>
+        <v>0.6840578521798339</v>
       </c>
       <c r="H18" t="n">
-        <v>6.477737406173327</v>
+        <v>6.606558730263135</v>
       </c>
       <c r="I18" t="n">
-        <v>23.0927514252773</v>
+        <v>23.55199184040218</v>
       </c>
       <c r="J18" t="n">
-        <v>63.36827496202527</v>
+        <v>64.62846576230616</v>
       </c>
       <c r="K18" t="n">
-        <v>108.3064750604375</v>
+        <v>110.460341858355</v>
       </c>
       <c r="L18" t="n">
         <v>135.0905202853774</v>
@@ -32332,22 +32332,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P18" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q18" t="n">
-        <v>85.61674362818734</v>
+        <v>87.31938478000829</v>
       </c>
       <c r="R18" t="n">
-        <v>41.64343811162109</v>
+        <v>42.47159190990234</v>
       </c>
       <c r="S18" t="n">
-        <v>12.45831876255405</v>
+        <v>12.70607457886664</v>
       </c>
       <c r="T18" t="n">
-        <v>2.703469880233099</v>
+        <v>2.757233184882751</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04500380606446278</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5734911242750117</v>
       </c>
       <c r="H19" t="n">
-        <v>4.999434801619816</v>
+        <v>5.098857450372381</v>
       </c>
       <c r="I19" t="n">
-        <v>16.91015370527438</v>
+        <v>17.24644217365218</v>
       </c>
       <c r="J19" t="n">
-        <v>39.75521927627533</v>
+        <v>40.54582248624333</v>
       </c>
       <c r="K19" t="n">
-        <v>65.33003759171899</v>
+        <v>66.62924152940589</v>
       </c>
       <c r="L19" t="n">
-        <v>83.59995577268958</v>
+        <v>85.26248951266858</v>
       </c>
       <c r="M19" t="n">
-        <v>88.14443178356892</v>
+        <v>89.8973405079457</v>
       </c>
       <c r="N19" t="n">
-        <v>86.04855420824779</v>
+        <v>87.75978268110254</v>
       </c>
       <c r="O19" t="n">
-        <v>79.47976717339965</v>
+        <v>81.06036363843532</v>
       </c>
       <c r="P19" t="n">
-        <v>68.00867137090997</v>
+        <v>69.36114470322502</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.08567889337432</v>
+        <v>48.0220613245194</v>
       </c>
       <c r="R19" t="n">
-        <v>25.28344021350878</v>
+        <v>25.78624636967461</v>
       </c>
       <c r="S19" t="n">
-        <v>9.799505638757848</v>
+        <v>9.994386229410884</v>
       </c>
       <c r="T19" t="n">
-        <v>2.402591366831606</v>
+        <v>2.450371167356868</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03067137915104183</v>
+        <v>0.03128133405136431</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.253570605168206</v>
+        <v>1.278500085181387</v>
       </c>
       <c r="H20" t="n">
-        <v>12.8381299601789</v>
+        <v>13.09343899736388</v>
       </c>
       <c r="I20" t="n">
-        <v>48.32828075574732</v>
+        <v>49.28937453395546</v>
       </c>
       <c r="J20" t="n">
-        <v>106.3952381503951</v>
+        <v>108.5110966046638</v>
       </c>
       <c r="K20" t="n">
-        <v>159.4588818671654</v>
+        <v>162.6300052103919</v>
       </c>
       <c r="L20" t="n">
-        <v>197.8228432750819</v>
+        <v>201.7569021922619</v>
       </c>
       <c r="M20" t="n">
-        <v>220.116029524742</v>
+        <v>224.4934280821063</v>
       </c>
       <c r="N20" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O20" t="n">
-        <v>211.2125443015348</v>
+        <v>215.4128812271055</v>
       </c>
       <c r="P20" t="n">
-        <v>180.2650199864447</v>
+        <v>183.84991037419</v>
       </c>
       <c r="Q20" t="n">
-        <v>135.3715226888582</v>
+        <v>138.0636260736316</v>
       </c>
       <c r="R20" t="n">
-        <v>78.7446045268974</v>
+        <v>80.31058097577535</v>
       </c>
       <c r="S20" t="n">
-        <v>28.56574016527053</v>
+        <v>29.13382069107088</v>
       </c>
       <c r="T20" t="n">
-        <v>5.487505324123826</v>
+        <v>5.596634122881524</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1022800068145109</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6840578521798339</v>
       </c>
       <c r="H21" t="n">
-        <v>6.477737406173327</v>
+        <v>6.606558730263135</v>
       </c>
       <c r="I21" t="n">
-        <v>23.0927514252773</v>
+        <v>23.55199184040218</v>
       </c>
       <c r="J21" t="n">
-        <v>63.36827496202527</v>
+        <v>64.62846576230616</v>
       </c>
       <c r="K21" t="n">
-        <v>108.3064750604375</v>
+        <v>110.460341858355</v>
       </c>
       <c r="L21" t="n">
         <v>135.0905202853774</v>
@@ -32569,22 +32569,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P21" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q21" t="n">
-        <v>85.61674362818734</v>
+        <v>87.31938478000829</v>
       </c>
       <c r="R21" t="n">
-        <v>41.64343811162109</v>
+        <v>42.47159190990234</v>
       </c>
       <c r="S21" t="n">
-        <v>12.45831876255405</v>
+        <v>12.70607457886664</v>
       </c>
       <c r="T21" t="n">
-        <v>2.703469880233099</v>
+        <v>2.757233184882751</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04500380606446278</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5734911242750117</v>
       </c>
       <c r="H22" t="n">
-        <v>4.999434801619815</v>
+        <v>5.098857450372381</v>
       </c>
       <c r="I22" t="n">
-        <v>16.91015370527438</v>
+        <v>17.24644217365218</v>
       </c>
       <c r="J22" t="n">
-        <v>39.75521927627533</v>
+        <v>40.54582248624333</v>
       </c>
       <c r="K22" t="n">
-        <v>65.33003759171899</v>
+        <v>66.62924152940589</v>
       </c>
       <c r="L22" t="n">
-        <v>83.59995577268958</v>
+        <v>85.26248951266858</v>
       </c>
       <c r="M22" t="n">
-        <v>88.14443178356892</v>
+        <v>89.8973405079457</v>
       </c>
       <c r="N22" t="n">
-        <v>86.04855420824779</v>
+        <v>87.75978268110254</v>
       </c>
       <c r="O22" t="n">
-        <v>79.47976717339965</v>
+        <v>81.06036363843532</v>
       </c>
       <c r="P22" t="n">
-        <v>68.00867137090997</v>
+        <v>69.36114470322502</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.08567889337432</v>
+        <v>48.0220613245194</v>
       </c>
       <c r="R22" t="n">
-        <v>25.28344021350878</v>
+        <v>25.78624636967461</v>
       </c>
       <c r="S22" t="n">
-        <v>9.799505638757848</v>
+        <v>9.994386229410884</v>
       </c>
       <c r="T22" t="n">
-        <v>2.402591366831606</v>
+        <v>2.450371167356868</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.03128133405136431</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.253570605168206</v>
+        <v>1.278500085181387</v>
       </c>
       <c r="H23" t="n">
-        <v>12.8381299601789</v>
+        <v>13.09343899736388</v>
       </c>
       <c r="I23" t="n">
-        <v>48.32828075574732</v>
+        <v>49.28937453395545</v>
       </c>
       <c r="J23" t="n">
-        <v>106.3952381503951</v>
+        <v>108.5110966046638</v>
       </c>
       <c r="K23" t="n">
-        <v>159.4588818671654</v>
+        <v>162.6300052103919</v>
       </c>
       <c r="L23" t="n">
-        <v>197.8228432750819</v>
+        <v>201.7569021922618</v>
       </c>
       <c r="M23" t="n">
-        <v>220.116029524742</v>
+        <v>224.4934280821063</v>
       </c>
       <c r="N23" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O23" t="n">
-        <v>211.2125443015348</v>
+        <v>215.4128812271055</v>
       </c>
       <c r="P23" t="n">
-        <v>180.2650199864447</v>
+        <v>183.84991037419</v>
       </c>
       <c r="Q23" t="n">
-        <v>135.3715226888582</v>
+        <v>138.0636260736316</v>
       </c>
       <c r="R23" t="n">
-        <v>78.7446045268974</v>
+        <v>80.31058097577535</v>
       </c>
       <c r="S23" t="n">
-        <v>28.56574016527053</v>
+        <v>29.13382069107088</v>
       </c>
       <c r="T23" t="n">
-        <v>5.487505324123826</v>
+        <v>5.596634122881524</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1022800068145109</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6840578521798339</v>
       </c>
       <c r="H24" t="n">
-        <v>6.477737406173327</v>
+        <v>6.606558730263135</v>
       </c>
       <c r="I24" t="n">
-        <v>23.0927514252773</v>
+        <v>23.55199184040218</v>
       </c>
       <c r="J24" t="n">
-        <v>63.36827496202527</v>
+        <v>64.62846576230616</v>
       </c>
       <c r="K24" t="n">
-        <v>108.3064750604375</v>
+        <v>110.460341858355</v>
       </c>
       <c r="L24" t="n">
         <v>135.0905202853774</v>
@@ -32806,22 +32806,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P24" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q24" t="n">
-        <v>85.61674362818734</v>
+        <v>87.31938478000829</v>
       </c>
       <c r="R24" t="n">
-        <v>41.64343811162109</v>
+        <v>42.47159190990234</v>
       </c>
       <c r="S24" t="n">
-        <v>12.45831876255405</v>
+        <v>12.70607457886664</v>
       </c>
       <c r="T24" t="n">
-        <v>2.703469880233099</v>
+        <v>2.757233184882751</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04500380606446278</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5734911242750117</v>
       </c>
       <c r="H25" t="n">
-        <v>4.999434801619815</v>
+        <v>5.098857450372381</v>
       </c>
       <c r="I25" t="n">
-        <v>16.91015370527438</v>
+        <v>17.24644217365218</v>
       </c>
       <c r="J25" t="n">
-        <v>39.75521927627533</v>
+        <v>40.54582248624332</v>
       </c>
       <c r="K25" t="n">
-        <v>65.33003759171899</v>
+        <v>66.62924152940589</v>
       </c>
       <c r="L25" t="n">
-        <v>83.59995577268958</v>
+        <v>85.26248951266858</v>
       </c>
       <c r="M25" t="n">
-        <v>88.14443178356892</v>
+        <v>89.89734050794569</v>
       </c>
       <c r="N25" t="n">
-        <v>86.04855420824779</v>
+        <v>87.75978268110254</v>
       </c>
       <c r="O25" t="n">
-        <v>79.47976717339965</v>
+        <v>81.06036363843533</v>
       </c>
       <c r="P25" t="n">
-        <v>68.00867137090997</v>
+        <v>69.36114470322504</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.08567889337432</v>
+        <v>48.0220613245194</v>
       </c>
       <c r="R25" t="n">
-        <v>25.28344021350878</v>
+        <v>25.78624636967461</v>
       </c>
       <c r="S25" t="n">
-        <v>9.799505638757848</v>
+        <v>9.994386229410884</v>
       </c>
       <c r="T25" t="n">
-        <v>2.402591366831606</v>
+        <v>2.450371167356868</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.03128133405136432</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.253570605168206</v>
+        <v>1.278500085181387</v>
       </c>
       <c r="H26" t="n">
-        <v>12.8381299601789</v>
+        <v>13.09343899736388</v>
       </c>
       <c r="I26" t="n">
-        <v>48.32828075574732</v>
+        <v>49.28937453395546</v>
       </c>
       <c r="J26" t="n">
-        <v>106.3952381503951</v>
+        <v>108.5110966046638</v>
       </c>
       <c r="K26" t="n">
-        <v>159.4588818671654</v>
+        <v>162.6300052103919</v>
       </c>
       <c r="L26" t="n">
-        <v>197.8228432750819</v>
+        <v>201.7569021922619</v>
       </c>
       <c r="M26" t="n">
-        <v>220.116029524742</v>
+        <v>224.4934280821063</v>
       </c>
       <c r="N26" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O26" t="n">
-        <v>211.2125443015348</v>
+        <v>215.4128812271055</v>
       </c>
       <c r="P26" t="n">
-        <v>180.2650199864447</v>
+        <v>183.84991037419</v>
       </c>
       <c r="Q26" t="n">
-        <v>135.3715226888582</v>
+        <v>138.0636260736316</v>
       </c>
       <c r="R26" t="n">
-        <v>78.7446045268974</v>
+        <v>80.31058097577535</v>
       </c>
       <c r="S26" t="n">
-        <v>28.56574016527053</v>
+        <v>29.13382069107088</v>
       </c>
       <c r="T26" t="n">
-        <v>5.487505324123826</v>
+        <v>5.596634122881524</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1022800068145109</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6840578521798339</v>
       </c>
       <c r="H27" t="n">
-        <v>6.477737406173327</v>
+        <v>6.606558730263135</v>
       </c>
       <c r="I27" t="n">
-        <v>23.0927514252773</v>
+        <v>23.55199184040218</v>
       </c>
       <c r="J27" t="n">
-        <v>63.36827496202527</v>
+        <v>64.62846576230616</v>
       </c>
       <c r="K27" t="n">
-        <v>108.3064750604375</v>
+        <v>110.460341858355</v>
       </c>
       <c r="L27" t="n">
         <v>135.0905202853774</v>
@@ -33043,22 +33043,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P27" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q27" t="n">
-        <v>85.61674362818734</v>
+        <v>87.31938478000829</v>
       </c>
       <c r="R27" t="n">
-        <v>41.64343811162109</v>
+        <v>42.47159190990234</v>
       </c>
       <c r="S27" t="n">
-        <v>12.45831876255405</v>
+        <v>12.70607457886664</v>
       </c>
       <c r="T27" t="n">
-        <v>2.703469880233099</v>
+        <v>2.757233184882751</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04500380606446278</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5734911242750117</v>
       </c>
       <c r="H28" t="n">
-        <v>4.999434801619815</v>
+        <v>5.098857450372381</v>
       </c>
       <c r="I28" t="n">
-        <v>16.91015370527438</v>
+        <v>17.24644217365218</v>
       </c>
       <c r="J28" t="n">
-        <v>39.75521927627533</v>
+        <v>40.54582248624333</v>
       </c>
       <c r="K28" t="n">
-        <v>65.33003759171899</v>
+        <v>66.62924152940589</v>
       </c>
       <c r="L28" t="n">
-        <v>83.59995577268958</v>
+        <v>85.26248951266858</v>
       </c>
       <c r="M28" t="n">
-        <v>88.14443178356892</v>
+        <v>89.8973405079457</v>
       </c>
       <c r="N28" t="n">
-        <v>86.04855420824779</v>
+        <v>87.75978268110254</v>
       </c>
       <c r="O28" t="n">
-        <v>79.47976717339965</v>
+        <v>81.06036363843532</v>
       </c>
       <c r="P28" t="n">
-        <v>68.00867137090997</v>
+        <v>69.36114470322502</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.08567889337432</v>
+        <v>48.0220613245194</v>
       </c>
       <c r="R28" t="n">
-        <v>25.28344021350878</v>
+        <v>25.78624636967461</v>
       </c>
       <c r="S28" t="n">
-        <v>9.799505638757848</v>
+        <v>9.994386229410884</v>
       </c>
       <c r="T28" t="n">
-        <v>2.402591366831606</v>
+        <v>2.450371167356868</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.03128133405136431</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.253570605168206</v>
+        <v>1.278500085181387</v>
       </c>
       <c r="H29" t="n">
-        <v>12.8381299601789</v>
+        <v>13.09343899736388</v>
       </c>
       <c r="I29" t="n">
-        <v>48.32828075574732</v>
+        <v>49.28937453395546</v>
       </c>
       <c r="J29" t="n">
-        <v>106.3952381503951</v>
+        <v>108.5110966046638</v>
       </c>
       <c r="K29" t="n">
-        <v>159.4588818671654</v>
+        <v>162.6300052103919</v>
       </c>
       <c r="L29" t="n">
-        <v>197.8228432750819</v>
+        <v>201.7569021922619</v>
       </c>
       <c r="M29" t="n">
-        <v>220.116029524742</v>
+        <v>224.4934280821063</v>
       </c>
       <c r="N29" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O29" t="n">
-        <v>211.2125443015348</v>
+        <v>215.4128812271055</v>
       </c>
       <c r="P29" t="n">
-        <v>180.2650199864447</v>
+        <v>183.84991037419</v>
       </c>
       <c r="Q29" t="n">
-        <v>135.3715226888582</v>
+        <v>138.0636260736316</v>
       </c>
       <c r="R29" t="n">
-        <v>78.7446045268974</v>
+        <v>80.31058097577535</v>
       </c>
       <c r="S29" t="n">
-        <v>28.56574016527053</v>
+        <v>29.13382069107088</v>
       </c>
       <c r="T29" t="n">
-        <v>5.487505324123826</v>
+        <v>5.596634122881524</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1022800068145109</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6840578521798339</v>
       </c>
       <c r="H30" t="n">
-        <v>6.477737406173327</v>
+        <v>6.606558730263135</v>
       </c>
       <c r="I30" t="n">
-        <v>23.0927514252773</v>
+        <v>23.55199184040218</v>
       </c>
       <c r="J30" t="n">
-        <v>63.36827496202527</v>
+        <v>64.62846576230616</v>
       </c>
       <c r="K30" t="n">
-        <v>108.3064750604375</v>
+        <v>110.460341858355</v>
       </c>
       <c r="L30" t="n">
         <v>135.0905202853774</v>
@@ -33280,22 +33280,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P30" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q30" t="n">
-        <v>85.61674362818734</v>
+        <v>87.31938478000829</v>
       </c>
       <c r="R30" t="n">
-        <v>41.64343811162109</v>
+        <v>42.47159190990234</v>
       </c>
       <c r="S30" t="n">
-        <v>12.45831876255405</v>
+        <v>12.70607457886664</v>
       </c>
       <c r="T30" t="n">
-        <v>2.703469880233099</v>
+        <v>2.757233184882751</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04500380606446278</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5734911242750117</v>
       </c>
       <c r="H31" t="n">
-        <v>4.999434801619815</v>
+        <v>5.098857450372381</v>
       </c>
       <c r="I31" t="n">
-        <v>16.91015370527438</v>
+        <v>17.24644217365218</v>
       </c>
       <c r="J31" t="n">
-        <v>39.75521927627533</v>
+        <v>40.54582248624333</v>
       </c>
       <c r="K31" t="n">
-        <v>65.33003759171899</v>
+        <v>66.62924152940589</v>
       </c>
       <c r="L31" t="n">
-        <v>83.59995577268958</v>
+        <v>85.26248951266858</v>
       </c>
       <c r="M31" t="n">
-        <v>88.14443178356892</v>
+        <v>89.8973405079457</v>
       </c>
       <c r="N31" t="n">
-        <v>86.04855420824779</v>
+        <v>87.75978268110254</v>
       </c>
       <c r="O31" t="n">
-        <v>79.47976717339965</v>
+        <v>81.06036363843532</v>
       </c>
       <c r="P31" t="n">
-        <v>68.00867137090997</v>
+        <v>69.36114470322502</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.08567889337432</v>
+        <v>48.0220613245194</v>
       </c>
       <c r="R31" t="n">
-        <v>25.28344021350878</v>
+        <v>25.78624636967461</v>
       </c>
       <c r="S31" t="n">
-        <v>9.799505638757848</v>
+        <v>9.994386229410884</v>
       </c>
       <c r="T31" t="n">
-        <v>2.402591366831606</v>
+        <v>2.450371167356868</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.03128133405136431</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.253570605168206</v>
+        <v>1.278500085181387</v>
       </c>
       <c r="H32" t="n">
-        <v>12.8381299601789</v>
+        <v>13.09343899736388</v>
       </c>
       <c r="I32" t="n">
-        <v>48.32828075574732</v>
+        <v>49.28937453395546</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3952381503951</v>
+        <v>108.5110966046638</v>
       </c>
       <c r="K32" t="n">
-        <v>159.4588818671654</v>
+        <v>162.6300052103919</v>
       </c>
       <c r="L32" t="n">
-        <v>197.8228432750819</v>
+        <v>201.7569021922619</v>
       </c>
       <c r="M32" t="n">
-        <v>220.116029524742</v>
+        <v>224.4934280821063</v>
       </c>
       <c r="N32" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O32" t="n">
-        <v>211.2125443015348</v>
+        <v>215.4128812271055</v>
       </c>
       <c r="P32" t="n">
-        <v>180.2650199864447</v>
+        <v>183.84991037419</v>
       </c>
       <c r="Q32" t="n">
-        <v>135.3715226888582</v>
+        <v>138.0636260736316</v>
       </c>
       <c r="R32" t="n">
-        <v>78.7446045268974</v>
+        <v>80.31058097577535</v>
       </c>
       <c r="S32" t="n">
-        <v>28.56574016527053</v>
+        <v>29.13382069107088</v>
       </c>
       <c r="T32" t="n">
-        <v>5.487505324123826</v>
+        <v>5.596634122881524</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1022800068145109</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6840578521798339</v>
       </c>
       <c r="H33" t="n">
-        <v>6.477737406173327</v>
+        <v>6.606558730263135</v>
       </c>
       <c r="I33" t="n">
-        <v>23.0927514252773</v>
+        <v>23.55199184040218</v>
       </c>
       <c r="J33" t="n">
-        <v>63.36827496202527</v>
+        <v>64.62846576230616</v>
       </c>
       <c r="K33" t="n">
-        <v>108.3064750604375</v>
+        <v>110.460341858355</v>
       </c>
       <c r="L33" t="n">
         <v>135.0905202853774</v>
@@ -33517,22 +33517,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P33" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q33" t="n">
-        <v>85.61674362818734</v>
+        <v>87.31938478000829</v>
       </c>
       <c r="R33" t="n">
-        <v>41.64343811162109</v>
+        <v>42.47159190990234</v>
       </c>
       <c r="S33" t="n">
-        <v>12.45831876255405</v>
+        <v>12.70607457886664</v>
       </c>
       <c r="T33" t="n">
-        <v>2.703469880233099</v>
+        <v>2.757233184882751</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04500380606446278</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5734911242750117</v>
       </c>
       <c r="H34" t="n">
-        <v>4.999434801619815</v>
+        <v>5.098857450372381</v>
       </c>
       <c r="I34" t="n">
-        <v>16.91015370527438</v>
+        <v>17.24644217365218</v>
       </c>
       <c r="J34" t="n">
-        <v>39.75521927627533</v>
+        <v>40.54582248624333</v>
       </c>
       <c r="K34" t="n">
-        <v>65.33003759171899</v>
+        <v>66.62924152940589</v>
       </c>
       <c r="L34" t="n">
-        <v>83.59995577268958</v>
+        <v>85.26248951266858</v>
       </c>
       <c r="M34" t="n">
-        <v>88.14443178356892</v>
+        <v>89.8973405079457</v>
       </c>
       <c r="N34" t="n">
-        <v>86.04855420824779</v>
+        <v>87.75978268110254</v>
       </c>
       <c r="O34" t="n">
-        <v>79.47976717339965</v>
+        <v>81.06036363843532</v>
       </c>
       <c r="P34" t="n">
-        <v>68.00867137090997</v>
+        <v>69.36114470322502</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.08567889337432</v>
+        <v>48.0220613245194</v>
       </c>
       <c r="R34" t="n">
-        <v>25.28344021350878</v>
+        <v>25.78624636967461</v>
       </c>
       <c r="S34" t="n">
-        <v>9.799505638757848</v>
+        <v>9.994386229410884</v>
       </c>
       <c r="T34" t="n">
-        <v>2.402591366831606</v>
+        <v>2.450371167356868</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.03128133405136431</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.253570605168206</v>
+        <v>1.278500085181387</v>
       </c>
       <c r="H35" t="n">
-        <v>12.8381299601789</v>
+        <v>13.09343899736388</v>
       </c>
       <c r="I35" t="n">
-        <v>48.32828075574732</v>
+        <v>49.28937453395546</v>
       </c>
       <c r="J35" t="n">
-        <v>106.3952381503951</v>
+        <v>108.5110966046638</v>
       </c>
       <c r="K35" t="n">
-        <v>159.4588818671654</v>
+        <v>162.6300052103919</v>
       </c>
       <c r="L35" t="n">
-        <v>197.8228432750819</v>
+        <v>201.7569021922619</v>
       </c>
       <c r="M35" t="n">
-        <v>220.116029524742</v>
+        <v>224.4934280821063</v>
       </c>
       <c r="N35" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O35" t="n">
-        <v>211.2125443015348</v>
+        <v>215.4128812271055</v>
       </c>
       <c r="P35" t="n">
-        <v>180.2650199864447</v>
+        <v>183.84991037419</v>
       </c>
       <c r="Q35" t="n">
-        <v>135.3715226888582</v>
+        <v>138.0636260736316</v>
       </c>
       <c r="R35" t="n">
-        <v>78.7446045268974</v>
+        <v>80.31058097577535</v>
       </c>
       <c r="S35" t="n">
-        <v>28.56574016527053</v>
+        <v>29.13382069107088</v>
       </c>
       <c r="T35" t="n">
-        <v>5.487505324123826</v>
+        <v>5.596634122881524</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1022800068145109</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6840578521798339</v>
       </c>
       <c r="H36" t="n">
-        <v>6.477737406173327</v>
+        <v>6.606558730263135</v>
       </c>
       <c r="I36" t="n">
-        <v>23.0927514252773</v>
+        <v>23.55199184040218</v>
       </c>
       <c r="J36" t="n">
-        <v>63.36827496202527</v>
+        <v>64.62846576230616</v>
       </c>
       <c r="K36" t="n">
-        <v>108.3064750604375</v>
+        <v>110.460341858355</v>
       </c>
       <c r="L36" t="n">
         <v>135.0905202853774</v>
@@ -33754,22 +33754,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P36" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q36" t="n">
-        <v>85.61674362818734</v>
+        <v>87.31938478000829</v>
       </c>
       <c r="R36" t="n">
-        <v>41.64343811162109</v>
+        <v>42.47159190990234</v>
       </c>
       <c r="S36" t="n">
-        <v>12.45831876255405</v>
+        <v>12.70607457886664</v>
       </c>
       <c r="T36" t="n">
-        <v>2.703469880233099</v>
+        <v>2.757233184882751</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04500380606446278</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5734911242750117</v>
       </c>
       <c r="H37" t="n">
-        <v>4.999434801619815</v>
+        <v>5.098857450372381</v>
       </c>
       <c r="I37" t="n">
-        <v>16.91015370527438</v>
+        <v>17.24644217365218</v>
       </c>
       <c r="J37" t="n">
-        <v>39.75521927627533</v>
+        <v>40.54582248624333</v>
       </c>
       <c r="K37" t="n">
-        <v>65.33003759171899</v>
+        <v>66.62924152940589</v>
       </c>
       <c r="L37" t="n">
-        <v>83.59995577268958</v>
+        <v>85.26248951266858</v>
       </c>
       <c r="M37" t="n">
-        <v>88.14443178356892</v>
+        <v>89.8973405079457</v>
       </c>
       <c r="N37" t="n">
-        <v>86.04855420824779</v>
+        <v>87.75978268110254</v>
       </c>
       <c r="O37" t="n">
-        <v>79.47976717339965</v>
+        <v>81.06036363843532</v>
       </c>
       <c r="P37" t="n">
-        <v>68.00867137090997</v>
+        <v>69.36114470322502</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.08567889337432</v>
+        <v>48.0220613245194</v>
       </c>
       <c r="R37" t="n">
-        <v>25.28344021350878</v>
+        <v>25.78624636967461</v>
       </c>
       <c r="S37" t="n">
-        <v>9.799505638757848</v>
+        <v>9.994386229410884</v>
       </c>
       <c r="T37" t="n">
-        <v>2.402591366831606</v>
+        <v>2.450371167356868</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.03128133405136431</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.253570605168206</v>
+        <v>1.278500085181387</v>
       </c>
       <c r="H38" t="n">
-        <v>12.8381299601789</v>
+        <v>13.09343899736388</v>
       </c>
       <c r="I38" t="n">
-        <v>48.32828075574732</v>
+        <v>49.28937453395546</v>
       </c>
       <c r="J38" t="n">
-        <v>106.3952381503951</v>
+        <v>108.5110966046638</v>
       </c>
       <c r="K38" t="n">
-        <v>159.4588818671654</v>
+        <v>162.6300052103919</v>
       </c>
       <c r="L38" t="n">
-        <v>197.8228432750819</v>
+        <v>201.7569021922619</v>
       </c>
       <c r="M38" t="n">
-        <v>220.116029524742</v>
+        <v>224.4934280821063</v>
       </c>
       <c r="N38" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O38" t="n">
-        <v>211.2125443015348</v>
+        <v>215.4128812271055</v>
       </c>
       <c r="P38" t="n">
-        <v>180.2650199864447</v>
+        <v>183.84991037419</v>
       </c>
       <c r="Q38" t="n">
-        <v>135.3715226888582</v>
+        <v>138.0636260736316</v>
       </c>
       <c r="R38" t="n">
-        <v>78.7446045268974</v>
+        <v>80.31058097577535</v>
       </c>
       <c r="S38" t="n">
-        <v>28.56574016527053</v>
+        <v>29.13382069107088</v>
       </c>
       <c r="T38" t="n">
-        <v>5.487505324123826</v>
+        <v>5.596634122881524</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1022800068145109</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6840578521798339</v>
       </c>
       <c r="H39" t="n">
-        <v>6.477737406173327</v>
+        <v>6.606558730263135</v>
       </c>
       <c r="I39" t="n">
-        <v>23.0927514252773</v>
+        <v>23.55199184040218</v>
       </c>
       <c r="J39" t="n">
-        <v>63.36827496202527</v>
+        <v>64.62846576230616</v>
       </c>
       <c r="K39" t="n">
-        <v>108.3064750604375</v>
+        <v>110.460341858355</v>
       </c>
       <c r="L39" t="n">
         <v>135.0905202853774</v>
@@ -33991,22 +33991,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P39" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q39" t="n">
-        <v>85.61674362818734</v>
+        <v>87.31938478000829</v>
       </c>
       <c r="R39" t="n">
-        <v>41.64343811162109</v>
+        <v>42.47159190990234</v>
       </c>
       <c r="S39" t="n">
-        <v>12.45831876255405</v>
+        <v>12.70607457886664</v>
       </c>
       <c r="T39" t="n">
-        <v>2.703469880233099</v>
+        <v>2.757233184882751</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04500380606446278</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5734911242750117</v>
       </c>
       <c r="H40" t="n">
-        <v>4.999434801619815</v>
+        <v>5.098857450372381</v>
       </c>
       <c r="I40" t="n">
-        <v>16.91015370527438</v>
+        <v>17.24644217365218</v>
       </c>
       <c r="J40" t="n">
-        <v>39.75521927627533</v>
+        <v>40.54582248624333</v>
       </c>
       <c r="K40" t="n">
-        <v>65.33003759171899</v>
+        <v>66.62924152940589</v>
       </c>
       <c r="L40" t="n">
-        <v>83.59995577268958</v>
+        <v>85.26248951266858</v>
       </c>
       <c r="M40" t="n">
-        <v>88.14443178356892</v>
+        <v>89.8973405079457</v>
       </c>
       <c r="N40" t="n">
-        <v>86.04855420824779</v>
+        <v>87.75978268110254</v>
       </c>
       <c r="O40" t="n">
-        <v>79.47976717339965</v>
+        <v>81.06036363843532</v>
       </c>
       <c r="P40" t="n">
-        <v>68.00867137090997</v>
+        <v>69.36114470322502</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.08567889337432</v>
+        <v>48.0220613245194</v>
       </c>
       <c r="R40" t="n">
-        <v>25.28344021350878</v>
+        <v>25.78624636967461</v>
       </c>
       <c r="S40" t="n">
-        <v>9.799505638757848</v>
+        <v>9.994386229410884</v>
       </c>
       <c r="T40" t="n">
-        <v>2.402591366831606</v>
+        <v>2.450371167356868</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.03128133405136431</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.253570605168206</v>
+        <v>1.278500085181387</v>
       </c>
       <c r="H41" t="n">
-        <v>12.83812996017889</v>
+        <v>13.09343899736388</v>
       </c>
       <c r="I41" t="n">
-        <v>48.32828075574732</v>
+        <v>49.28937453395546</v>
       </c>
       <c r="J41" t="n">
-        <v>106.3952381503951</v>
+        <v>108.5110966046638</v>
       </c>
       <c r="K41" t="n">
-        <v>159.4588818671653</v>
+        <v>162.6300052103919</v>
       </c>
       <c r="L41" t="n">
-        <v>197.8228432750819</v>
+        <v>201.7569021922619</v>
       </c>
       <c r="M41" t="n">
-        <v>220.116029524742</v>
+        <v>224.4934280821063</v>
       </c>
       <c r="N41" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O41" t="n">
-        <v>211.2125443015348</v>
+        <v>215.4128812271055</v>
       </c>
       <c r="P41" t="n">
-        <v>180.2650199864447</v>
+        <v>183.84991037419</v>
       </c>
       <c r="Q41" t="n">
-        <v>135.3715226888582</v>
+        <v>138.0636260736316</v>
       </c>
       <c r="R41" t="n">
-        <v>78.74460452689742</v>
+        <v>80.31058097577535</v>
       </c>
       <c r="S41" t="n">
-        <v>28.56574016527053</v>
+        <v>29.13382069107088</v>
       </c>
       <c r="T41" t="n">
-        <v>5.487505324123826</v>
+        <v>5.596634122881524</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1022800068145109</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6707194044539139</v>
+        <v>0.6840578521798339</v>
       </c>
       <c r="H42" t="n">
-        <v>6.477737406173327</v>
+        <v>6.606558730263135</v>
       </c>
       <c r="I42" t="n">
-        <v>23.0927514252773</v>
+        <v>23.55199184040218</v>
       </c>
       <c r="J42" t="n">
-        <v>63.36827496202527</v>
+        <v>64.62846576230616</v>
       </c>
       <c r="K42" t="n">
-        <v>108.3064750604375</v>
+        <v>110.460341858355</v>
       </c>
       <c r="L42" t="n">
         <v>135.0905202853774</v>
@@ -34228,22 +34228,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P42" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q42" t="n">
-        <v>85.61674362818734</v>
+        <v>87.31938478000829</v>
       </c>
       <c r="R42" t="n">
-        <v>41.64343811162109</v>
+        <v>42.47159190990234</v>
       </c>
       <c r="S42" t="n">
-        <v>12.45831876255405</v>
+        <v>12.70607457886664</v>
       </c>
       <c r="T42" t="n">
-        <v>2.703469880233099</v>
+        <v>2.757233184882751</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04500380606446278</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5734911242750117</v>
       </c>
       <c r="H43" t="n">
-        <v>4.999434801619816</v>
+        <v>5.098857450372381</v>
       </c>
       <c r="I43" t="n">
-        <v>16.91015370527438</v>
+        <v>17.24644217365218</v>
       </c>
       <c r="J43" t="n">
-        <v>39.75521927627533</v>
+        <v>40.54582248624333</v>
       </c>
       <c r="K43" t="n">
-        <v>65.33003759171899</v>
+        <v>66.62924152940589</v>
       </c>
       <c r="L43" t="n">
-        <v>83.59995577268958</v>
+        <v>85.26248951266858</v>
       </c>
       <c r="M43" t="n">
-        <v>88.14443178356892</v>
+        <v>89.8973405079457</v>
       </c>
       <c r="N43" t="n">
-        <v>86.04855420824779</v>
+        <v>87.75978268110254</v>
       </c>
       <c r="O43" t="n">
-        <v>79.47976717339965</v>
+        <v>81.06036363843532</v>
       </c>
       <c r="P43" t="n">
-        <v>68.00867137090997</v>
+        <v>69.36114470322502</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.08567889337432</v>
+        <v>48.0220613245194</v>
       </c>
       <c r="R43" t="n">
-        <v>25.28344021350878</v>
+        <v>25.78624636967461</v>
       </c>
       <c r="S43" t="n">
-        <v>9.799505638757848</v>
+        <v>9.994386229410884</v>
       </c>
       <c r="T43" t="n">
-        <v>2.402591366831606</v>
+        <v>2.450371167356868</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03067137915104183</v>
+        <v>0.03128133405136431</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.253570605168206</v>
+        <v>1.278500085181387</v>
       </c>
       <c r="H44" t="n">
-        <v>12.8381299601789</v>
+        <v>13.09343899736388</v>
       </c>
       <c r="I44" t="n">
-        <v>48.32828075574732</v>
+        <v>49.28937453395546</v>
       </c>
       <c r="J44" t="n">
-        <v>106.3952381503951</v>
+        <v>108.5110966046638</v>
       </c>
       <c r="K44" t="n">
-        <v>159.4588818671654</v>
+        <v>162.6300052103919</v>
       </c>
       <c r="L44" t="n">
-        <v>197.8228432750819</v>
+        <v>201.7569021922619</v>
       </c>
       <c r="M44" t="n">
-        <v>220.116029524742</v>
+        <v>224.4934280821063</v>
       </c>
       <c r="N44" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O44" t="n">
-        <v>211.2125443015348</v>
+        <v>215.4128812271055</v>
       </c>
       <c r="P44" t="n">
-        <v>180.2650199864447</v>
+        <v>183.84991037419</v>
       </c>
       <c r="Q44" t="n">
-        <v>135.3715226888582</v>
+        <v>138.0636260736316</v>
       </c>
       <c r="R44" t="n">
-        <v>78.7446045268974</v>
+        <v>80.31058097577535</v>
       </c>
       <c r="S44" t="n">
-        <v>28.56574016527053</v>
+        <v>29.13382069107088</v>
       </c>
       <c r="T44" t="n">
-        <v>5.487505324123826</v>
+        <v>5.596634122881524</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.1022800068145109</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6840578521798339</v>
       </c>
       <c r="H45" t="n">
-        <v>6.477737406173327</v>
+        <v>6.606558730263135</v>
       </c>
       <c r="I45" t="n">
-        <v>23.0927514252773</v>
+        <v>23.55199184040218</v>
       </c>
       <c r="J45" t="n">
-        <v>63.36827496202527</v>
+        <v>64.62846576230616</v>
       </c>
       <c r="K45" t="n">
-        <v>108.3064750604375</v>
+        <v>110.460341858355</v>
       </c>
       <c r="L45" t="n">
         <v>135.0905202853774</v>
@@ -34465,22 +34465,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P45" t="n">
-        <v>128.0779887329584</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q45" t="n">
-        <v>85.61674362818734</v>
+        <v>87.31938478000829</v>
       </c>
       <c r="R45" t="n">
-        <v>41.64343811162109</v>
+        <v>42.47159190990234</v>
       </c>
       <c r="S45" t="n">
-        <v>12.45831876255405</v>
+        <v>12.70607457886664</v>
       </c>
       <c r="T45" t="n">
-        <v>2.703469880233099</v>
+        <v>2.757233184882751</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04500380606446278</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5734911242750117</v>
       </c>
       <c r="H46" t="n">
-        <v>4.999434801619815</v>
+        <v>5.098857450372381</v>
       </c>
       <c r="I46" t="n">
-        <v>16.91015370527438</v>
+        <v>17.24644217365218</v>
       </c>
       <c r="J46" t="n">
-        <v>39.75521927627533</v>
+        <v>40.54582248624333</v>
       </c>
       <c r="K46" t="n">
-        <v>65.33003759171899</v>
+        <v>66.62924152940589</v>
       </c>
       <c r="L46" t="n">
-        <v>83.59995577268958</v>
+        <v>85.26248951266858</v>
       </c>
       <c r="M46" t="n">
-        <v>88.14443178356892</v>
+        <v>89.8973405079457</v>
       </c>
       <c r="N46" t="n">
-        <v>86.04855420824779</v>
+        <v>87.75978268110254</v>
       </c>
       <c r="O46" t="n">
-        <v>79.47976717339965</v>
+        <v>81.06036363843532</v>
       </c>
       <c r="P46" t="n">
-        <v>68.00867137090997</v>
+        <v>69.36114470322502</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.08567889337432</v>
+        <v>48.0220613245194</v>
       </c>
       <c r="R46" t="n">
-        <v>25.28344021350878</v>
+        <v>25.78624636967461</v>
       </c>
       <c r="S46" t="n">
-        <v>9.799505638757848</v>
+        <v>9.994386229410884</v>
       </c>
       <c r="T46" t="n">
-        <v>2.402591366831606</v>
+        <v>2.450371167356868</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.03128133405136431</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
